--- a/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2810821370451754</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.271329228141824</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2626573542154674</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2550500359363364</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2484555220567657</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2428112329172178</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.238048147841267</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2340940321790368</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2308758240905323</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2283214118629873</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2263609428085749</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2249277613557495</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2239590512769843</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2233962424122494</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2231852313938356</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2232764571906957</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2236248651168211</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2241897869496045</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2249347597642908</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.225827301850993</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2268386605165721</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2279435435831624</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2291198438934364</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2303483640482736</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2316125468743315</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2328982156947538</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2341933273107504</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2354877396559877</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2367729953258396</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2380421215802868</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2392894469472974</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2405104341910632</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2417015291376642</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2428600246535443</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2439839389357812</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2450719071858725</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2461230856907129</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.247137067317274</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2481557110772729</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2491342857832929</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2500755055850925</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2509801209861554</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2518490108185963</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2261530462348137</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2270598923934499</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2280927520795645</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2292005106954012</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2303304689718633</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2314403174733665</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2324982930658457</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2334819020275821</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2343763201267197</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2351728801759976</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2358677542994591</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.236460841496384</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2369548433633558</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2373545045784647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2376659949821191</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2378964121337443</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2380533856378959</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2381447668805391</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2381783899739358</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2381618916513218</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.238102579584624</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2380073401328226</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.237882577880575</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2377341805120331</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2375675035987806</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2373873707782819</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.23719808557423</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2370034517759886</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2368067998633061</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.236611017446098</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2364185820978534</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2362315953046679</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2360518165387002</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2358806967026977</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2357194103880816</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2355688865490025</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2354298373241797</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2353027848419333</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.235170588145825</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2350499792985327</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2349423004687132</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2348477436326577</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2347662624228706</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1711292305249459</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.178868645858474</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1860759361632713</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.192708122208617</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1987406155164492</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2041676257979096</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2089982372865974</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2132527252587651</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2169594404586721</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2201522552230984</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2228685065653758</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2251473631800325</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2270285484761783</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2285513599700785</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2297539336178757</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2306727091417757</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2313420589644611</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2317940490720559</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2320583050712423</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.232161960985369</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2321296720308759</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2319836758009112</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2317438890198232</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2314280293746347</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2310517539256604</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.23062880729093</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2301711742262401</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2296892324188253</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.229191902308482</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.228686791572933</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2281803325887236</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2276779117265924</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2271839897801854</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2267022131759058</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2262355158842467</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.225786212161849</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2253560804097279</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2249464385460547</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2245296196111885</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2241346842101938</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2237626954942111</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2234137596520773</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2230877375555812</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.05988514337318276</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05624229740412696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.05321984627084531</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05075642440171792</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.04880105351733903</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.04730463375069349</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.04621962021576593</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04550029406501883</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.04510318350984099</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.04498741928272976</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.04511497620663744</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.04545080573975766</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.04596287764572422</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.04662215014820568</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.04740248583584698</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04828052785523278</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04923554833456367</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.05024927870656627</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0513057296615915</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05239100683063916</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05349312693432207</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05460183800053239</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.05570844631786427</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.05680565202495064</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.05788739461278652</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.05894870911605531</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.05998559337151974</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.06099488641020175</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.06197415781108578</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.06292160766509924</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.06383597666852195</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.06471646577567947</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.06556266478401024</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.06637448919381463</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.06715212467464864</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.06789597847579396</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.06860663713565313</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.0692848298711192</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.06996212532858362</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.0706089923285976</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.07122568199586506</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.07181310310920613</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.07237225133904726</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1719191033185837</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1767008105590802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1806015332879936</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1837686449624895</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1863093128350837</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1883158117991054</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.189868691748271</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1910385152988462</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.191887011376966</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1924680063853351</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1928282494531905</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1930081667324536</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1930425552635245</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1929612201703478</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1927895574324236</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1925490844178604</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1922579206155051</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1919312212605374</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1915815667334149</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1912193107208042</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1908528901691973</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1904891000492964</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1901333358927049</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.18978980697113</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1894617228700275</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1891514560701638</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1888606829978281</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1885905058424882</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1883415572739267</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1881140900229783</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1879080531239876</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1877231564554126</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1875589250595684</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1874147445747101</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1872898989735253</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1871836016722584</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1870950209544699</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1870233005429272</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1869614471013993</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1869118679770463</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1868762396287537</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1868539811352088</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1868444221987305</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4291558380584517</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4211116990857499</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4136702500291173</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4069080705932197</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4008633780860426</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3955475601672055</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.390951842979437</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3870525063578166</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3838151047357501</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.38119786662619</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3791544085987678</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3776358782313549</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.376592623154037</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3759754686049923</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3757366733413349</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.375830622963174</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3762143104611396</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3768476458721725</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3776936301416305</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3787184224839227</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3798913255737389</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3811847086696709</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3825738851721722</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3840369580627075</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3855546440865295</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.387110085363491</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.3886886552837016</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.3902777640188561</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.3918666677130832</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.3934462843719827</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.395009018612615</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.3965485967422881</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.3980599130753679</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.3995388879536201</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4009823375882227</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4023878555745561</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4037537057303832</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4050787257622738</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4064153577022375</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4077079857424796</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4089575145426994</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4101644492956574</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4113294601391286</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2263276400316511</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2143555471522711</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2033854701976295</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1934277627275447</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1844742507729047</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1764964504848738</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1694514585056915</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1632864618063894</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1579422889037341</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1533562052829228</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.149464093435887</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1462021283139617</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1435080392551985</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1413220343253804</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1395874506975138</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1382511844068578</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1372639441310701</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1365803662736427</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1361590223605776</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1359623444265922</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1359564895306653</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1361111606876829</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.136399398237773</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1367973529164801</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1372840495676005</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1378411484960425</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1384527098381202</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1391049649854593</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1397860979961874</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1404860390282743</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.141196271104154</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1419096509364172</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1426202440881507</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1433231743882891</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1440144872547149</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1446910263808249</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1453503231020391</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1459904976663292</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1466343528109901</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1472570430833157</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1478570540297703</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1484341912572176</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.148988443690715</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3805079440508833</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3753389662100979</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3698668117124553</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3643158058649603</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3588664455870555</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3536536455072784</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3487736038273899</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3442907838548466</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3402442094948227</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3366528603639741</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3335201950994356</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3308378988522422</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3285889608678227</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3267501810657466</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3252941934175054</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3241910825976912</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3234096599689275</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3229184556975129</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3226864756608176</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3226837647006764</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.32288181158763</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3232538256824998</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3237749106181179</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3244221562893672</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3251746669581557</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3260135402843022</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3269218095239865</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3278843589415167</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3288878206107102</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3299204591974195</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3309720499775946</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3320337542228604</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3330979951487697</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3341583368439076</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.335209367958173</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3362465914058609</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.337266320916101</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.338265584924481</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3392838657936973</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3402771795993961</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3412433093473847</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3421812881858796</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3430905980739855</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3833020143034166</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3885753313265903</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3928530196308551</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3962840542958782</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3989953414289847</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4010964195634788</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4026827974587904</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4038378401537014</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4046341482233943</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4051347244500035</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4053940182549253</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4054588766129751</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.405369412027661</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4051597931451793</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4048589624078882</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4044912849898539</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4040771333062664</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4036334114311135</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4031740237499364</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4027102921168808</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4022513256859033</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4018043474530025</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4013749813863059</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4009675038393048</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4005850627443993</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4002298678737566</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3999033552365437</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3996063284598686</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3993390797788192</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3991014930420299</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.398893130925934</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3987133083455009</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3985611538535794</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3984356606362534</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.398335728538762</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3982601983960481</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3982078797941028</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3981775732528737</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3981548487245485</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3981511375121825</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3981656350526578</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3981975132314666</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3982458369588235</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2205668364038274</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2132248135102973</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2066454530263832</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2008281780687084</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1957624765724035</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1914214907224685</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1877676634129979</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1847563839582399</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1823387446508266</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1804636723923233</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1790795711179668</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1781355696552679</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1775824488688085</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1773733084368367</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1774640234084238</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1778135324144819</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1783839924855388</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.179140829575124</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1800527089159753</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1810914451110092</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1822318682733028</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1834516594890061</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1847311663078155</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1860532068020811</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.1874028689214523</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.1887673103563321</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.1901355628677433</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.1914983440064252</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.1928478782976704</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.194177729282351</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.1954826432541603</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.1967584050969446</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.1980017062855932</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.1992100248533042</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2003815169333729</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2015149193431728</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2026094625816229</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2036647935506321</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2047256754855754</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2057472268123388</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2067290827853062</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2076721951152212</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2085774883887264</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.05548981681301254</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.05152745472393078</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.04887291428936218</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.04728718728195013</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.04658340711364694</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.04660372426842888</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.04721315772260243</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.0482959893913997</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.04975323539751945</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.05150058303512498</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.05346659073286875</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.05559108195436659</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.05782370504401861</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.06012264334230473</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.06245346351470885</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.06478809114763148</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.06710390313294005</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.06938292673082012</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.07161113560678448</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.07377783360440689</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07587511753087084</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07789741078206577</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.07984106020273865</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08170398915233015</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.08348540031808169</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.08518552237533525</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.08680539513402652</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.08834668832513712</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.08981154966767627</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.09120247831314972</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.09252222018899992</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.09377368215460918</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.09495986224323186</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.0960837935913654</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.09714849995465244</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.09815696097786564</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.09911208562747709</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1000166924105587</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1009087586878989</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1017575080613286</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.102563608911616</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1033289981821999</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1040557052255124</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01325548551499553</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01443130165599976</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01547199855876859</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0164215265974284</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01731912885749511</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01819495951078903</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01907100072642116</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01996243377380653</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.02087896921259462</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.0218260132185129</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02280565256248567</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02381747154529269</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.0248592216173702</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02592736468871955</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02701750935360454</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.0281247570159703</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.02924397269830097</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03036999329348556</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03149778420910282</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.03262255375348461</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.03373983320868783</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.03484552930964089</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.03593595478336938</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.03700784168019247</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.03805834143406436</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.0390850149070017</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.04008581508930812</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.04105906463083822</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.04200342995785038</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.0429178933752319</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.04380172425625459</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.04465445017375988</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.04547582862086526</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.04626581979987282</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.04702456081969694</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.04775234153014614</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.04844958213171459</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.04911681262862079</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.04979007176841867</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.05043446943127942</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.05105003613926008</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.05163751115991567</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.05219773721196623</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1090336829154322</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.111183435641331</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1115778605622961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1106492865348699</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1087244645216796</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1060626093469313</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1028734708314614</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.09932703755879352</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.09556030594671422</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09168264577042284</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.08778028705671298</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08392014355710091</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.08015308659924499</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.07651674675790884</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.07303790505532647</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.06973452645734254</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06661748195989819</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06369200020057877</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06095888483622708</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05841552973629919</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.05605676027683091</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.05387552563463978</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0518634639397846</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.05001135941579343</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.04830950819466674</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.0467480073126075</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.04531697945027297</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04400674425722999</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04280794557474183</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.04171164252583356</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.04070937125972605</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.0397931831032407</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03895566396979322</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.03818993909326084</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.03748966647652192</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03684902186101173</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03626267752339511</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0357257767785262</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.03521909815675362</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.03474767670419296</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.03431185412798177</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03390966980895044</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.0335386434233205</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.03996744395364714</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.03804498452958638</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03417902029065595</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02891991929235145</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.02268484615947115</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01579964024292072</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.008522862815046744</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.001059223525998118</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.006430842427952166</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01382354305632007</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.02102537141939684</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.02796772753009848</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03460235452781465</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.04089747134719268</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.04683450660533454</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.05240535222928212</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.05761006573734484</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.06245495878335773</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.06695101716551499</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.07111260423228964</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.0749564056135708</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.07850057855053284</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.0817640738598054</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.08476610280312921</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08752572489293658</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.09006153599217659</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09239143900415347</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.09453248203267678</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.09650075115908283</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.09831130696269152</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.0999781556346182</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1015142470289426</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1029314932852222</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1042408027653712</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1054521249971315</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1065745031249919</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.107616131054867</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.108584413056856</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1095152342010495</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1103915439949934</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1112145871067442</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1119875697770239</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.112714249091092</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4299611366485296</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4303184225481868</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4280418424221786</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4238652794368765</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4183401789319959</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4118959030674825</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4048725113487714</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3975389639158925</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3901059526071238</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3827360520087188</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.375552142630579</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3686445163548561</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3620768930074729</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3558915088600506</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3501134062338769</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3447540341394972</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3398142554951405</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3352868444921787</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3311585472734205</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3274117699150855</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3240259495715055</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.320978657426623</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3182464756975535</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3158056852671816</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.313632795510056</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3117049434521905</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3100001855111128</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3084977016438216</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3071779287382564</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3060226374738727</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3050149646082139</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3041394106816885</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3033818114381293</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.3027292898030456</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3021701940166448</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.3016940264590628</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.3012913668077772</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.3009537924110598</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.3006684952859245</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.3004248085375568</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.3002225199467478</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.3000586519670702</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2999294234519236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6301077929097173</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6189133694603964</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6065777185824623</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5936683737344447</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5806048634210947</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5676939660737559</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5551613146164484</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5431694499500711</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5318307234917835</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5212174495795557</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5113701997442694</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5023046598796197</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4940173063033194</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4864900887823523</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4796942729901777</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4735935711427336</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.468146671137403</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4633092591449086</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4590356174005013</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.455279867479458</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4519969193554499</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.449143177830383</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4466770503300941</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4445592934460741</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.442753229852429</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4412248622378052</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4399429065745039</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4388787633223243</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4380064419623129</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4373024515126644</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4367456673392735</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4363171825865208</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4360001508748322</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4357796255001569</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4356423991910378</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4355768474995608</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4355727780950606</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4356212875691575</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4357116192902243</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4358342209074472</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4359861205148307</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.436164313914442</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4363652007082</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.0045485005771079</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.01460038405577872</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.03144611505001295</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.04622382908433756</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.05916300486935251</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.07047883705197053</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.08036740475173558</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.08900526373331061</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.09655031563836133</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1031430856539621</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1089081169672894</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1139553717767726</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1183815914259118</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1222715924693748</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1256994864470024</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1287298170589572</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1314186121145509</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1338143501170313</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1359588430969649</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1378880385468785</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.139632744175722</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1412192797840476</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1426700609242535</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1440041192033001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1452375641455328</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1463839914904561</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1474548426786647</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.148459720098407</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1494066624417117</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1503023842660963</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1511524835865888</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1519616210421156</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.152733673897433</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1534718678623966</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1541788894388653</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1548569812452107</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.155508022521599</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1561335967875204</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1567750500365902</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.15739366109851</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1579892678344718</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.158562245109999</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1591133280468798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4114181098723195</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4068717001751306</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4018495377162838</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3965618337421472</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.391153825831476</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3857330916141863</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3803811482363522</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.375159464230735</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3701134569480145</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.365275541074649</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3606676018564575</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3563030487229176</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3521885318524588</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3483253768374467</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3447107801140417</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3413388005045689</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3382011769786105</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3352879985422584</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3325882486335696</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3300902433683206</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3277819803495239</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3256514124627481</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3236866590784375</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3218761653331386</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3202088186317481</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3186740301757363</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3172617881549029</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3159626882229061</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.3147679459923498</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.3136693955184469</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.3126594770776921</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.3117312169774903</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.3108782016434661</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3100945478134543</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.3093748703121778</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.3087142485804762</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3081081928805911</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.3075526108881102</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.3070083072354717</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.3065042849227312</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.3060401508695775</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.3056139083147609</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.3052232692090492</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.365083149240074</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.3628516515606172</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3580798682472021</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3515092010232855</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3437030096258654</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3350990528392909</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3260421146122408</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3168026917994574</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3075904535019011</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2985649838759215</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2898447143529241</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2815144517852121</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2736317395965147</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2662322233730547</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.259334160321948</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2529421917007341</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2470504817533019</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2416453136138855</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2367072212575807</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2322127265371889</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2281357414577261</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2244486879638927</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2211233805410372</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.218131710761662</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.215446167464052</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2130402214531757</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2108885994001649</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2089674679254614</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2072545456275201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.2057291580141122</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.204372247861353</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.2031663514251402</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.2020955491229639</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2011453977566317</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.2003028500271746</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1995561659738556</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1988948200244181</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1983094065506757</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1977756916405018</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.197294045330683</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1968626790881839</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1964778943503374</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.196135322930058</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.5909978474429064</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.598088332250811</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6012105382238325</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6013101570408655</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5991315194747064</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5952745916854019</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5902252116887013</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5843752346312486</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5780380972577727</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5714616847881796</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5648392368308378</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5583186573973071</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5520104648214521</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5459945643661906</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5403259979098101</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5350398053509864</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5301551162978575</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5256785766376485</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5216072021715197</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5179307404042327</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5146336116529882</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5116964917693456</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5090975908522184</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5068136752784357</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.504820874108613</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5030953053658964</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5016135527659089</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5003530191361431</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4992921789453962</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4984107490165339</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4976897935709401</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4971117772063161</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4966605772005054</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4963214646254741</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4960810621134848</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4959272847107683</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4958492690544457</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4958372950905293</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4958905799013121</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4959857892962911</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4961202750290177</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4962896758292691</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4964895013480971</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4147824151361537</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4079036614121696</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3995712726188189</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3903476354782912</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3806454922459415</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.370776204822542</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3609762333090945</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3514229094655563</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3422459101929612</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3335363880028016</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3253544973810499</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3177356679202182</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3106958392690969</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3042358172626367</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2983448814329435</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2930037545997476</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2881870299904384</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2838651385215035</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2800059277872341</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2765759146148939</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2735412645528624</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.270868544207264</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2685252858090563</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2664803976717039</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2647044491976313</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2631698547288787</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2618509767421906</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2607241655972464</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.259767750201552</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.258961991505063</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2582890086354495</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2577326856891261</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.257278565666104</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2569137367444789</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2566267150026296</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.25640732678684</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2562465931649464</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2561366182813321</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2560680145482557</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2560305526013111</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2560231115981796</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2560427089801484</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2560859931001815</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.02856588963036942</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.03166265036771909</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.03647248520635035</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.04247386525581701</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.04927537144253236</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.0565710724483217</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.06412021422161721</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.07173462429686742</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.07926930230441735</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.08661479252155757</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.09369080467995233</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1004408275658805</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1068275767051928</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.112829156678824</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1184358390373557</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1236473704961594</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1284707369426199</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1329183180428644</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1370063753610176</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1407538241069889</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1441812450309344</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1473100986725508</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1501621092241031</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1527587897407261</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1551210843862504</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1572691068883026</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1592219574389228</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1609976029587967</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1626128079833796</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1640831054635834</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1654227985353268</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1666449858314462</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1677616042139796</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1687834839199958</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1697204120629367</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.170581201234669</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1713737606298061</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1721051676801539</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1727996056602672</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1734504500358067</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1740586946217021</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1746276044518735</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1751606356056697</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.153009168225368</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.019112243086369</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.865718697562732</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.700849954081412</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.530797149093664</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.360415825239691</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.193384401903296</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.032418468653297</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.879450235027637</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.73577946080339</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.602200266670841</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.47910731583389</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.366584313236991</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.26447736640568</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.172455418744376</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.090059678397945</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.016743713700195</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.951905664503246</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.894913823527125</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.845126670185636</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.801908288454961</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.764639967913454</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.732728671034256</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.705612948337027</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.682766794485642</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.663701861413857</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.647968377778525</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.635155066318358</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.624888300988213</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.616830703100366</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.610679339283908</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.606163653105156</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.60304323598744</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.601105521011268</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.600163464715022</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.600053266661883</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.600632163855973</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.601776326695781</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.6034909739335</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.605548212033355</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.607873187783302</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.610405333779933</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.613092784400497</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.4107512495126343</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3916710281492692</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3757829479853332</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3625234712260008</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3515360084996215</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3425038520696756</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3351510152457309</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3292353033410919</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.324544043871376</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3208909464795939</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3181134085461439</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3160700610953965</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.314638499691245</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3137131871959922</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3132035248482704</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3130320885064479</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3131330251830517</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3134506031909981</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3139379078289327</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3145556736011746</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3152712434339262</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3160576451325328</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3168927753516853</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3177586815610312</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3186409328339941</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3195280707285816</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3204111320343254</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3212832357044321</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3221392268570059</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3229753712984533</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3237890945840089</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.324578760175735</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3253434817807758</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3260829654474486</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3267973774608962</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3274872345117674</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3281533130099947</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3287965747812855</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3294149312877213</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3300159075557416</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3305977617652215</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3311631003561586</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3317125708000125</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3314651548429381</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3149475735750562</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2993460121097042</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2847816666108684</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2713032852926673</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2589173757149619</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.247608093035098</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2373424041067044</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2280745932537045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2197501472177207</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2123089419807668</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2056877885720597</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1998224289655201</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1946490723506011</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1901055520091496</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1861321716191717</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1826722992452049</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1796727580454678</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1770840548048646</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1748604806417877</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1729601124740495</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1713447389206408</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1699797301384602</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1688338675432495</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1678791463544588</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1670905613603146</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1664458841581652</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1659254383310166</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1655118775259342</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1651899701616784</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.164946393474782</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1647695387830382</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1646493291748997</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1645770502979594</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1645451944981115</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1645473182345447</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1645779124483837</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1646322853806854</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1647160903247134</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1647962663660462</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.164888317122351</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1649922458770914</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1651060515275414</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2108605409834289</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1894077675701198</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.170182846904373</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1531366817842211</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1380683579848914</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1248032520150137</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1131800361355382</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1030454160745859</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.09425357399471521</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08666677484130439</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.08015603024655513</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.07460153942661008</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.06989287421205008</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0659289426178941</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.06261777798086436</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.05987619772353824</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.05762936917686378</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.05581031310691804</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0543593695649682</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.05322364555784063</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.05235645975260886</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.05171679587567574</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.05126877353369828</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.05098114277810122</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0508268067753164</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.05078237536252007</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.05082775100462247</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.05094574767197712</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.05112174238615701</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.05134335859564205</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.05160018011208932</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.05188349403327158</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.05218606087707459</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05250191003194286</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05282615857578559</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05315485151319493</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05348482151788429</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05381356633353096</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05416231078964401</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.0544772523560289</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05478965430693312</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05509747167811847</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05539932081739622</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>0.9355564042475822</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9131061932834239</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8942376795524665</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.878212965885339</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8646509600053084</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8532633686452653</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.843804214441555</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8360519748624188</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8298041617794106</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8248756131107895</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8210977194706777</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.818317774421997</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8163982439508617</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8152159309578023</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8146610587723045</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8146363060352154</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8150558223368871</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8158442484923877</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8169357598550147</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8182731462904143</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8198069384573963</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8214945868071707</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8232996971220143</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8251913243687351</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8271433250527058</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8291337670469103</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8311443949705233</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8331601485459486</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8351687309235329</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.837160223688532</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8391267451210711</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8410621482382497</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8429617551844983</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8448221246322734</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8466408489942129</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8484163784169564</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.850147868715502</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8518350506068918</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8534701535688672</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8550895027903722</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8566738524955327</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8582194710850186</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.859725571938614</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.426933915302044</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.083532224432789</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.775027532129868</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.499525762256083</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.25481000268</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.038563057013259</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.848442260101598</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.682136094458631</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.537404606560435</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.412107826376293</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.304225001045092</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.211866669453484</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.133281147549595</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.066856680426316</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.011120278736414</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.964734066657565</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.926489813220249</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.895302190551567</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.870201196160812</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.850324087870275</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.834907106341617</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.823277198953443</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.814843908094058</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.809091545131366</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.805571737057778</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.803896404936352</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.80373121081502</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.804789491885838</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.806826686618239</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.809635246760761</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.813040020942654</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.816894089648234</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.821075027182618</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.825481563555398</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.830030617688303</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.834654672758359</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.83929946461296</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.843921954865701</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.848454825177874</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.852906852467427</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.857267661355451</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.861523124254168</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.865663815053245</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8566153101182847</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8289334716835601</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8049886479513967</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7841748440997183</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7661839188882155</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7507161205128126</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7374968544953756</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7262734831809304</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7168140175670193</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7089064882141483</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.702358307935455</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6969954682080237</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6926615740247533</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.689216761141402</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.686536542327434</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6845106223486828</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6830417130815133</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6820443726077947</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6814438858237275</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.681175198966988</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6811819163609728</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6814153644204585</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.681833725409098</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6824012414594709</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6830874878565103</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6838667134586045</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6847172453157396</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6856209539812408</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6865627756531753</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6875302870820054</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.68851332910815</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6895036747181217</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6904947376072254</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6914813173909676</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6924593778004163</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6934258544158617</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.694378488727909</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6953156855573088</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6962315800096672</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.6971357396944766</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.6980207489996108</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.6988900779631393</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.6997434560772356</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3345315029890445</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3570441223761652</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3750241617000792</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.389120051368168</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4000578295464681</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4084246561179329</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4147070235692767</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4193118396473279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4225795747590289</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4247941543904006</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4261911506469268</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4269648219356212</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4272742331151875</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4272485862335157</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4269918561891513</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4265868103483954</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4260984821950644</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4255771622165325</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4250609631878278</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4245780114594866</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4241483106966621</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4237853197346261</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4234972817997549</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4232883382846392</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4231594565478011</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4231091978169407</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4231343481925846</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4232304329586425</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4233921318894759</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4236136109813537</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4238887840114566</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4242115155219745</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4245757752228533</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.424975752387435</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4254059375642783</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4258611778302991</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4263367108502265</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4268281821713717</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4273449117473238</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4278992401301218</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4284519619271019</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4290031296666452</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4295516899283652</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.6977234036580259</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6765879567822273</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6583751229260127</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6427469940694799</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6293897149097611</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6180312947267267</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6084306567342085</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6003711066008899</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5936575338158461</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5881147464386374</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5835860820302591</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5799320635741908</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5770290580207708</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5747679465026824</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5730528252827668</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5717997548716653</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5709355705274791</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5703967631312249</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5701284358667051</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5700833392915786</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5702209851861789</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5705068379003351</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.570911580686612</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5714104536268048</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5719826591574962</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5726108308227938</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5732805606809362</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5739799807276057</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.574699393740714</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5754309490730338</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5761683590990364</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5769066522433115</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.577641958766021</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5783713257447728</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5790925579632601</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5798040816880944</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5805048285811965</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5811941372519687</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5818719658791323</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5825288134200134</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5831765456998224</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5838147121671519</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5844429578486589</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8457347646711675</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.830721474840082</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8181329439701204</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8076099229945225</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7988755665465723</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7916890347665007</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.785840490345057</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7811448634902206</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.777438593659135</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7745774410882263</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7724346575033919</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7708993100239997</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7698747078486057</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.769276925008153</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7690334222642404</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7690817713700184</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7693684827840909</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7698479356788441</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7704814072550265</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7712361970312862</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7720848408613655</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7730044088607746</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7739758811232194</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7749835950113192</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7760147578648071</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7770590191413839</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7781080962580331</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7791554487082104</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7801959953726452</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7812258703028969</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.782242212625157</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7832429865779554</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7842268280545901</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7851929143643293</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7861408542522869</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7870705955241314</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7879823479071119</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7888765190427323</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7897572125631592</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7906161636465981</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7914606317335819</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7922916555222884</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7931094460904975</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7359954780691116</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7482455743876153</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7583005068321265</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7666276045158723</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7735571397120191</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.7793510057456652</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.7842212624949297</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.7883430286774813</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.7918616751783474</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.7948977157154095</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.7975506400692631</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.7999021190252011</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8020187482626165</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8039544137438303</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8057523319112788</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8074468061537283</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8090647347399422</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8106269010940448</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8121490737743841</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8136429404618031</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8151168975410278</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.816576714416568</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.818026089509288</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8194671129060953</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8209006488612342</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8223266497543239</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8237444116806439</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8251527805683468</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8265503165718958</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.827935423469158</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8293064488802707</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8306617603196818</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8319998013793852</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8333191317127185</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8346184539361492</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8358966300837916</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8371526898289492</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8383858323223222</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8396421458663338</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8408760829155025</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8420819024772097</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8432601116498066</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8444115788656231</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.8003512418116708</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.800661314502947</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8011502509024856</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.801784272521442</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8025404965856089</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8034008635005403</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8043495970503491</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8053725177283733</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8064568451401134</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8075911212619085</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8087651503194472</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8099699298415342</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8111975705515501</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8124412086562723</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8136949148028194</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.814953603269766</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8162129440047727</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.817469279259963</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8187195458874379</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8199612038386364</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8211921710374714</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.822410764539023</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8236156477161639</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8248057831131258</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8259803905493049</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8271389100343687</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8282809690559586</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8294063538160837</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8305149840157872</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8316068908157859</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8326821976308328</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8337411034456252</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8347838683691875</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8358108011720566</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8368222485760484</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8378185860897548</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8388002102042332</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8397675317827377</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8407322676810657</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8416844802373431</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8426238207401486</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.843550419772741</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8444646110207727</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7452460034946273</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7453031246871272</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7461427702465894</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7475646385760405</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7494182312875158</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7515841612696819</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7539662376430949</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.75648699481063</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7590845147538428</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7617098816843039</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7643250400901798</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7669009627072152</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7694160789280029</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7718549294933993</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7742070196314828</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7764658462702256</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7786280774679158</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7806928643719184</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.782661268007813</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7845357850641975</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7863199585816218</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7880180610751606</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7896348391159139</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7911753097658228</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7926446005034897</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7940478253993886</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.795389991301878</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.796675928687289</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.7979102426154312</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.7990972799241818</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8002411094016846</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8013455122003297</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8024139802112246</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8034497205089458</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8044556643112296</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8054344791836163</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8063885834610285</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8073201620624137</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8082369435981916</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8091375139230288</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.810021711399047</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8108904170130274</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8117446901933898</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7144963892889911</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7136979077924102</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7138248076217086</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7146596106015936</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7160326880972163</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7178083944414897</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7198764847134979</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7221473146742653</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7245484310481254</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.72702183340955</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7295216622002803</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7320122139427768</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7344662319502959</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7368634370971155</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7391892697879173</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7414338177954802</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7435909071828635</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7456573357202663</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7476322302318178</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.749516511210445</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7513124498260718</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7530233041200377</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7546530227224086</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7562060058464051</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7576869146056717</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7591005208681604</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.760451590909488</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7617447970648792</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7629846524092786</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.764175464227752</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7653213026809804</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7664259816316418</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7674930490847999</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7685257851167469</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7695272055293212</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7705000697773315</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7714468919815625</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7723699540646013</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7732775003438078</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.774167344203806</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7750399924299546</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7758963485077386</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7767375314136747</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6847491872671531</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6771061894533594</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6709102209504114</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6659491917217109</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6620400863763318</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6590243033939933</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6567636786402076</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6551380255702656</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6540431486574383</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6533890802596207</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6530984720321827</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6531051217343181</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6533526290373987</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6537931759856198</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6543864270428719</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6550985425413578</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6559012984567691</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6567713048831314</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6576893153348535</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6586396190004088</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6596095082497242</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6605888140038606</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6615695019693795</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6625453231884646</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6635115128344482</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.664464531672027</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6654018450880752</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6663217350724244</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6672231409811359</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6681055253428588</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6689687613689611</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6698130391986895</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6706387882512268</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6714466133674933</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.672237242706771</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6730114856180089</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6737701989345281</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6745142603454889</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6752437596721227</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6759617633705595</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6766685623721777</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6773646371980689</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6780506043666064</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5777735667694958</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5814292801211597</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5849306272386137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.588241735928771</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.591345944089873</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5942376608154509</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5969178039656882</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5993916497237255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6016675167415088</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6037558263179411</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6056683802769235</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6074177920416569</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6090170377607933</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6104791058566785</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6118167284105335</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6130421806308305</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6141671366467337</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.615202571486548</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6161587005013651</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6170449487362621</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6178699438606094</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6186415272579874</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6193667787532364</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6200520512264103</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6207030120378318</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6213246887724337</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6219215173126669</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6224973906753775</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6230557074069552</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6235994186304505</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6241310730855703</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6246528597043445</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6251666474281996</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6256740221019063</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6261763203815768</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6266746606721418</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6271699711685379</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6276630151176775</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6281514471205891</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6286400328025731</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6291283712512796</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6296164276149401</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6301043305355223</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7495955453428386</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7534073307299142</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7567299398954007</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7596387738736987</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7621994622151135</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7644704875663957</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7665020260219118</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7683365315706454</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7700096625349366</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7715512120361111</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7729859532641999</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.774334382571798</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7756133648739437</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7768366914354825</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7780155607795676</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7791589926401425</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7802741837282845</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7813668129440577</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.782441302646792</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7835010417171052</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7845485753945934</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.785585766238489</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7866139300161128</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.787633949858806</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7886463716228885</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7896514830425725</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7906493789534839</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7916400145925641</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7926232487371793</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.793598878229234</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7945666652357839</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7955263584235923</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7964777090693584</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.7974204829882379</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.7983544690394236</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.7992794848576329</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8001953803622105</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8011020395101056</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8020137014953259</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8029158075297981</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8038083725897571</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8046911668341189</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8055642016838588</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5465649546342496</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.545909202802483</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.545982751191013</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5466182432568433</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5476811199984639</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5490619454920369</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5506714614754474</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5524372099680738</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5543008649694394</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5562159917374336</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5581461251820119</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5600631138384269</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5619456944384824</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5637782692921103</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5655498623187741</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5672532320518822</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5688841220237792</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5704406308449329</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5719226860780027</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5733316076866642</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5746697484085064</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5759401998573108</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5771465545001901</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.578292714879196</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5793827425570223</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5804207402660645</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5814107616345082</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5823567436585475</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5832624577931802</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5841314761525812</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5849671498522501</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5857725969962813</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5865506982213348</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5873040980609217</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5880352106958052</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5887462289144927</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5894391353273428</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5901157150635951</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5907808138597487</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5914336842753033</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.592075088666394</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5927058996155915</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5933269985499283</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6477739722984325</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.642323268418725</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6384088049930752</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.635735286780805</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.63406395273286</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6331981345641298</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6329736148707215</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6332531633157376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6339225174459223</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6348870706077377</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6360690222015469</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6374048929868796</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.63884335450786</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6403433369883117</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6418723858529322</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6434052400270788</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6449226073692735</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.646410114577617</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6478574108284015</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6492574062703745</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6506056282976613</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6518996802404714</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6531387887309212</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6543234275118397</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6554550068537998</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6565356190280649</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6575678314515863</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6585545201779083</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6594987373595457</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6604036071590451</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6612722453441071</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6621076984738368</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6629128991755555</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6636906345317162</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6644435250511838</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6651740120950755</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6658843519706488</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6665766152031909</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6672471132557048</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6679061473640374</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6685537763887214</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6691906804829121</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6698178277798172</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.6865572361808859</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6825000584591865</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6794950464111207</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6773599958215608</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6759426123698661</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6751141818102514</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6747653674262866</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6748034392371151</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6751500675394067</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6757394237952981</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6765165034123616</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6774356363280304</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6784591665358118</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6795562860214065</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6807020098043666</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6818762792715356</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6830631814221478</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6842502721836469</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6854279926120516</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6865891675314932</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6877285769595317</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6888425914773471</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6899288635125721</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6909860672890435</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.692013680948977</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.693011805060243</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6939810123790559</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6949222243438617</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6958366103287529</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6967255061852358</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6975903490515106</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.6984326258112254</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.6992538329420495</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7000554458116969</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7008388957586944</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7016055535406059</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7023567179469463</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7030936085607862</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7038176116227335</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7045307257140612</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7052334164913694</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7059263000453154</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.70661005720695</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6665253465123621</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6686174773555447</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6710334697153066</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6736525206036493</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6763859187971047</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6791664902704724</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6819428680833114</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6846761711966335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6873376315386841</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6899067088497265</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6923695273241285</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6947175614840733</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6969465300220651</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.699055468010338</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7010459532158212</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7029214654857063</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7046868606185114</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7063479422383969</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7079111170860564</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7093831208736734</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7107708034398529</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7120809633892969</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7133202237153915</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7144949410861328</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7156111425303868</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7166744841989924</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7176902277012502</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7186632302403058</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7195979453995015</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7204984319748673</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7213683687152487</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7222110732295757</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7230295236584321</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7238263819917951</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7246040181534091</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7253645341709234</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7261097879151875</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7268414160269664</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7275634982425513</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7282760592016758</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7289793459578559</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7296739556813364</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7303605835404503</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6390741596172833</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6441044793288599</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6496560832140864</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.655477666023735</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6613924258529872</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6672704976649352</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6730158164731596</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6785586090882442</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6838500742453939</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6888582027032719</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6935643523195367</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6979604039126086</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7020463960032111</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7058285648270783</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7093177299021154</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7125279742628806</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7154755752380374</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7181781473369111</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7206539637866343</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7229214276706676</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.724998667540696</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.726903235858577</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7286518917135764</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7302604519877088</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7317436975406518</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7331153230854868</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7343879212558629</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7355729929510251</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7366809774129019</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7377212966630113</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7387024099284987</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7396318745367098</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7405164104751245</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7413619664153162</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.742173785501278</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7429564696177962</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7437140411958053</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7444500018897666</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7451656398385091</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7458691790584179</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7465603596251362</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7472402881655982</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7479103114120402</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.269479249268789</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.263687917182502</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.258252775447429</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.253363207782039</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.249138056916115</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.245644437675692</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.242911744299456</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.240941225604832</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.239713272995428</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.239193181720475</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.239335750223533</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.240088943852308</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.24139678981307</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.243201637469525</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.24544589545678</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.248073339302536</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.251030068478777</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.254265179290737</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.257731209338781</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.261384400182291</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.265184817069094</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.269096357981243</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.273086678626578</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.277127055236396</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.281192202993084</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.285260064504412</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.289311579874401</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.293330447517466</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.297302882856573</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.301217380380047</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.305064483155823</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.308836562773364</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.312527611764973</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.316133049817562</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.31964954449532</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.323074846729036</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.326407640968324</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.329647409620889</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.33291265826967</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.33608109236562</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.339154898397572</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.342136240997227</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.345027271570204</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9864801464326026</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.981981003845861</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.97768375551348</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9737618185656012</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9703289161975046</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9674532854768403</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.9651698312618615</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.9634883510059684</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.9623998252541186</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.9618814144448761</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.961900466398696</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.9624177241612172</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.9633898747296095</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.9647715519772785</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.966516888240571</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-0.9685806941727869</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-0.9709193340930371</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.9734913535400138</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-0.9762579067512016</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-0.9791830240973947</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.9822337529279072</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.9853801996695677</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.988595496239891</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-0.9918557097673575</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.9951397111606799</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.9984290151488187</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.001707601950427</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.004961728661423</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.00817973671702</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.011351860341734</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.014470039705931</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.017527741524111</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.020519789026903</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.023442202588414</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.02629205176943</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.029067319124584</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.031766775800235</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.034389868704253</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.037035357805399</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.039601030283685</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.042088612503247</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.044499872364332</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.046836538196019</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8771746311031919</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8707213199948476</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8643285072034335</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8582516849864741</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8526640997478155</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8476786846904633</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8433630938593313</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8397502502025294</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8368465265040885</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8346383092701054</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.833097312089397</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8321848701052691</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8318553889249013</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8320590887408651</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8327441617319676</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.833858442812346</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8353506787263251</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8371714676119381</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8392739300895411</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8416141634080079</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8441515219892914</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8468487606755842</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8496720709495676</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8525910352351883</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.8555785199792927</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.858610524463256</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.861665999111186</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.8647266443711933</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.867776698981799</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.8708027245385104</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.8737933916947216</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.8767392720216673</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.8796326384750004</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.8824672765364591</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.8852383073881951</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.8879420239086673</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.8905757398300184</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.8931376520479924</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.8957288612314952</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.8982421428943295</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9006789296340313</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9030404231083855</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9053278785939076</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.642762502232294</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6369290791975347</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6312908690676233</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6260279378032482</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6212586764708548</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6170562419651645</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6134599675952028</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6104834639501093</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6081209062064393</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6063520661459096</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6051463692200292</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6044661570993261</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6042692919203199</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6045112131568672</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6051465401395165</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6061302989715752</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6074188406201573</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6089705067379951</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6107460909926637</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6127091361325827</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6148261005354114</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6170664224224697</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.619402505160647</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6218096430052609</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6242659031716018</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6267519771794089</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.629251011923331</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6317484288224482</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6342317376396649</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6366903500904422</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6391153971389081</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6414995528720414</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6438368670180222</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6461226075056429</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.648353113924091</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6505256623157358</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6526383414008849</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6546899400773177</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6567635165899093</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.658771763534191</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.660715866293924</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6625969296631178</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6644161232205082</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05114025876750845</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.04879023865650869</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.04664273580519308</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.04475216641321728</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.04314977406942493</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.041849602556886</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.040853494777876</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.04015439527128364</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.03973882458554065</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.03958881822915829</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.0396834643230995</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.04000011996117341</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.04051536400179447</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0412057323264084</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.04204827383655963</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.04302095946532709</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.04410297150887731</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.04527489634991495</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.04651884000456827</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.04781848278825316</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.04915908669690595</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.05052746678202193</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.05191193581327543</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.05330222982919427</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.0546894207374141</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.05606582090864678</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.05742488368361039</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.05876110285398858</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0600699134642062</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.0613475956902519</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.06259118306716248</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.06379837594250691</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.06496746071556608</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.06609723516898462</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.06718694000107983</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.06823619651375482</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.06924495029532025</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.07021342065284095</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.07119174247897803</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.07212906701572031</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.07302648584712888</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.07388513649810848</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.0747061206171641</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8672585302909864</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8599148510181576</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8528329081958966</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.846221222554041</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8402131317359813</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8348893068898962</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8302917616157139</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8264333463847712</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8233049829045105</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8208814066964361</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8191257783616308</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8179933829155787</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8174345773888381</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8173971150815871</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8178279533367026</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8186746349430002</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8198863193935751</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8214145284367709</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8232136602725867</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8252413181021756</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8274584913283924</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8298296213616616</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8323225785631913</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8349085722324219</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8375620116100386</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8402603325287437</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8429838015203278</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8457153068089743</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.848440143625756</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8511457996144153</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8538217447169525</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8564592287885071</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8590510892588861</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.8615915704018611</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.8640761551660426</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.866501410039322</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.8688648430422532</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.871164774656834</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.8734891744772419</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.875744161789671</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.8779313693445584</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.8800519147192905</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.8821069172719568</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8672585302909864</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8599148510181576</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8528329081958966</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.846221222554041</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8402131317359813</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8348893068898962</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8302917616157139</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8264333463847712</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8233049829045105</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8208814066964361</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8191257783616308</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8179933829155787</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8174345773888381</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8173971150815871</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8178279533367026</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8186746349430002</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8198863193935751</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8214145284367709</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8232136602725867</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8252413181021756</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8274584913283924</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8298296213616616</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8323225785631913</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8349085722324219</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8375620116100386</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8402603325287437</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8429838015203278</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8457153068089743</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.848440143625756</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8511457996144153</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8538217447169525</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8564592287885071</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8590510892588861</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.8615915704018611</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.8640761551660426</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.866501410039322</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.8688648430422532</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.871164774656834</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.8734891744772419</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.875744161789671</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.8779313693445584</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.8800519147192905</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.8821069172719568</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.114261266649704</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.111149380081385</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.107450100198214</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.103550889483148</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.099732237879731</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.096194975302462</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.093078739642818</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.090475112760436</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.08843793160672</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.08699165859005</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.086138240102466</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.085862723672312</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.086137836793678</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.086927693308361</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.088190767347657</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.089882254251185</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.091955920529734</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.094365530024693</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.097065920522698</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.100013793927909</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.103168273449758</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.106491272937338</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.109947716314755</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.113505638897258</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.117136197067178</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.120813608249076</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.124515039246338</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.128220457700679</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.131912458635698</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.135576075679506</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.139198584571107</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.142769304889352</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.146279404556981</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.149721710525869</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.153090528108618</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.156381470655578</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.159591300658973</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.162717782873768</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.165884565312136</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.168960011214849</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.17194577884862</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.174843168467392</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.177653537679385</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1824580683932616</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1768443102211096</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1716788167109449</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.167034831797767</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1629480981416985</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1594300866869594</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1564747817164297</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1540634774422405</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1521684395662008</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1507557856844281</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1497877650718987</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1492245536207965</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1490256507424843</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1491509484637476</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1495615312696136</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.150220255993924</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1510921533425056</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1521446860693191</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1533478932038475</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1546744449056555</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1560996283885862</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1576012818205617</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1591596900869741</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.160757453738297</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1623793402666532</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1640121250197016</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1656444275178105</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1672665476518909</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.168870305169197</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1704488849717958</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1719966900300143</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.173509203127129</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.1749828581810171</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.1764149215152969</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.1778033831608936</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.179146858045374</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.1804444967600521</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.1816959054737538</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.1829599489724931</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.1841755599520907</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.1853441340753527</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.1864666967988337</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.1875443247361315</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.00474560004645</v>
       </c>
+      <c r="F55" t="n">
+        <v>-0.9997202747999857</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.9950142026061185</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.9907857278439316</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.9871361646807512</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.9841224983303613</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.9817693178107543</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.9800769897840832</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.9790279224789831</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.9785915337198827</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-0.9787282223726848</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.9793925334542546</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.9805356593182154</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.9821073921601741</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.9840576239492227</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.9863374747011877</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.9889001173275984</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.991701356519008</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-0.9947000099188641</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-0.9978581319801827</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.001141114183393</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.004517689570543</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.007959864681451</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.011442797842978</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.014944639261223</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.018446345409614</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.021931477717322</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.025385993475971</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.028798035141038</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.03215772275808</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.035456953049876</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.038689207721568</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.041849372744502</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.044933569737692</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.047939000054519</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.050863801780357</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.053706919536266</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.056467986749273</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.059251087107549</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.061949268604265</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.064564223586968</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.067097890871353</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.069552191643026</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8804080431113248</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.873594609871883</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8679364159183407</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8633771514557287</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8598489141867826</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.857273133132605</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8555664153538343</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8546440070111673</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8544221493501001</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8548197435880747</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8557595181050766</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8571688153331352</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.8589800824111181</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.8611311309956744</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.8635652187993673</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.8662309955461872</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.8690823480234782</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.8720781722927659</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.8751820956283094</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.8783621661902988</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.8815905246588874</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.8848430689313873</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.8880991204134632</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.8913410983278268</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.8945542067460592</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.8977261376576287</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9008467922713604</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9039080218533553</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9069033887032737</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9098279473256649</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9126780454372039</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9154511441412082</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9181456563781163</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9207608026083276</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9232964825880874</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.925753162048421</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9281317730717774</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9304336269730067</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9327397413183122</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9349708340838253</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.937128618665207</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9392155344103978</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.941233924923588</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9171440790250782</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9123869249806451</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9086716465295945</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9059426592200597</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9041330453396593</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9031699660253495</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9029768376194265</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9034757727037163</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9045896116557656</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9062434817585974</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9083659334914678</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9108897246903365</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9137523205852205</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9168961690105482</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9202688006560802</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9238227956041248</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9275156499266993</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9313095697766709</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.935171215082472</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9390714105114203</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9429848376739495</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9468897194862211</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9507675050926554</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9546025616877858</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9583818778958869</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-0.9620947820052254</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-0.9657326772590471</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-0.9692887955331106</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-0.9727579700420763</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-0.9761364271826061</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-0.9794215972127865</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-0.9826119431628699</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-0.9857068071522522</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-0.9887062731361577</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-0.9916110450091244</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-0.9944223389399777</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-0.9971417887950175</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-0.9997713635149467</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.002406374866597</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.004954296728865</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.007417706861079</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.009799163670589</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.012101407709624</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.094720410086754</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.083931688226667</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.075239155859884</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.068428630929945</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.063295523977177</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.059646342611664</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.057300084548461</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.05608908267831</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.055859373360051</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.056470684195942</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.057796132787229</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.059721714479713</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.062145642805947</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.064977593531924</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.068137892383984</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.071556677569495</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.075173060872779</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.078934305152896</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.08279503126331</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.086716463558708</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.090665720085279</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.094615151128909</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.098541727905051</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.102426481717975</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.106253992815239</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.110011927348746</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.113690620271092</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.117282701599027</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.120782763226707</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.124187063338563</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.127493265429191</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.13070020896452</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.133807708797312</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.136816380566764</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.139727489455192</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.142542819835427</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.145264563513359</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.147895224445312</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.15051948393417</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.153057025496754</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.155510721651217</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.157883578882505</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.160178636138641</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8240331113379302</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8126083057239207</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8025609423315777</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.793884010636263</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7865266019757883</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7804178644370677</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.775474307610065</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7716050941702155</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7687159531595902</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7667121214410892</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7655005441563646</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7649914888452962</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7650996904359544</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7657451211635121</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7668534625459392</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.7683563430562057</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7701913939963018</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7723021667655878</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.7746379468945904</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.7771534936430271</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.7798087284441406</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.7825683908562377</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.7854016768220273</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.7882818708228928</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.7911859808514911</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.7940943829291338</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.7969904800932383</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.799860379313845</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8026925886145163</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8054777357269627</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8082083088619959</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8108784195988462</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8134835874522572</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8160205453479394</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8184870650013564</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8208818010349572</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8232041525700727</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8254541409792692</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.827713187332402</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8298977923088702</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8320109291108049</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8340543211489529</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8360298322248454</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4626903762620316</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4519684221460475</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4430146527579835</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.435652112940584</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4297103249280229</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4250293703509436</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.421460074548666</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4188643795980512</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4171155126051082</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4160979115497884</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4157069460479124</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4158484824787833</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4164383388591873</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4174016672376947</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4186722938539519</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4201920407647727</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4219100471885408</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4237821043524685</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4257700139951048</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4278409777404727</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4299670222017455</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4321244627925983</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4342934077410704</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4364573026454457</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4386025150268803</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4407179576711376</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4427947490711709</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4448259089493186</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4468060866237393</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4487313198643404</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4505988218386071</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4524067937606485</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4541542609135029</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4558409298037964</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4574670643198805</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4590333788919475</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4605409467892482</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.461991121830556</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4634350513763318</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4648241063869765</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4661603294640867</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4674454770542101</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4686814269510453</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3763374785716462</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3784185415167478</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3803212924345278</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.382037733633855</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3835651689132446</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3849062122700496</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3860674065306402</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3870581334298646</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3878897272422554</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3885747587391371</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3891264631524363</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.389558289562322</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3898835522509952</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3901151672188865</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3902654593367502</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3903460275871048</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3903676575887746</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.390340272138305</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3902729118684129</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3901737393350758</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3900500609153776</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3899083618393886</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3897543505015308</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3895930089099847</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3894286467463618</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3892649570317002</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3891050718381068</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3889516168571364</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3888067639448152</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3886722810171608</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3885495788765441</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3884397547150791</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3883436321725353</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3882617979284646</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3881946348861655</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3881423520639164</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3881050113502694</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3880825513081977</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3880567029157808</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3880456653267662</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3880492493193117</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3880670575644283</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3880986653773396</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.180693831290972</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.172375589309908</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.165802454964266</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.160819904386023</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.157281653051296</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.155043641303245</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.153965538327964</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.153912556880601</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.154756967225707</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.156379167699533</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.158668340457206</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.161522763769801</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.164849854458971</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.168566005233375</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.172596270936127</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.176873947673944</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.181340080113846</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.185942924930535</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.190637392326552</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.195384482555659</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.200150730293504</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.204907666373819</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.209631303718371</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.214301652128636</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.218902264886706</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.223419818756717</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.227843727922031</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.232165791584213</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.23637987434236</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.240481618028127</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.244468183361378</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.248338019587605</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.252090660139263</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.255726542311042</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.259246848938629</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.262653370109677</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.265948383004051</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.269134548050012</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.272320921020194</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.27540360546263</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.278384944809255</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.281268200933151</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.284056791568958</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6839370448294332</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6631706363894658</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6448636081400922</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.62887968894791</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6150546476081709</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6032153226729033</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5931869134576101</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5847974372727776</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5778807729808465</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5722787534113026</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5678425531096368</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5644335351153074</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5619236790232852</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5601956866750087</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5591428430002853</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5586686947577234</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5586865979254486</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5591191746159622</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5598977122106051</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5609615306275592</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5622573380178755</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5637385905379816</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5653648680196687</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5671012742209409</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5689178677851769</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5707891279702575</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5726934575557104</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5746127240279828</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5765318391246869</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5784383760393632</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.58032222300727</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.5821752715743408</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.5839911375655346</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.5857649125895985</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.5874929438231321</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.5891726397895521</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.5908022998728689</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.5923809653694573</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.5939580330004632</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.5954812381191309</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.5969529098573781</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.5983741496821392</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.5997461199129392</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8855977318475461</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8785978487867836</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8717922363125089</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8654037096141014</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8595825442847708</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8544246517631435</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8499842707431475</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8462834718389766</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.843319795242647</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8410724576260579</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8395073915062243</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8385813135929555</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8382449819457899</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.838445776203215</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8391297148433268</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8402430063950882</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8417332169406775</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8435501237073256</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8456463137482795</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.847977577421829</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8505031383945468</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8531857550469906</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.855991722296814</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8588907978449297</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.86185607258153</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8648638012615772</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8678932064876124</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.8709262664462842</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.8739474946681021</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.8769437182602117</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.8799038595492026</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.8828187248212428</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.8856808028218152</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.8884840748436047</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.8912238375594818</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.8938965392227747</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.8964996294371536</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.8990314223744967</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9015899166504231</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9040716237514539</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.906477983662443</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9088100585267637</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9110690686279124</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.07752444629458599</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06663909588851638</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05757516723537803</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.05012231296772909</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04408617798472324</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03928957054803262</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.03557137662062536</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.03278581581672461</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.03080169369063928</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02950157729886346</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02878090293659633</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02854704278652151</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02871835693267613</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02922325252269909</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.02999926679748479</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03099218627548831</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03215521073670569</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03344816772527519</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.0348367809642489</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.03629199424425145</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.03778935092027925</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.03930842805529268</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.04083232342633832</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.04234719300989202</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.04384183614719692</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.04530732532328633</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.04673667734614228</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.04812456266048083</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.04946704955324804</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.05076138008759359</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.05200577472427372</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.05319926274203365</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.05434153574157972</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.05543282170322533</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.05647377725970021</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.05746539603787441</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.0584089311123021</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.05930582979659477</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.06019378256367766</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.06103808016111484</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.06184058365884697</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.06260289115488454</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.06332667583303044</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7589655245814639</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7502577963813929</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7438156502218949</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7393032757667279</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7364359245424175</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7349622017868794</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7346602343132155</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7353348177588511</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.736814958945507</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7389515950146215</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7416154370667425</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7446949353215291</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7480943730948661</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7517320960562834</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7555388798941886</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7594564361733487</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7634360534382654</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7674373685638524</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7714272619000443</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7753788687925609</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.7792706994883203</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.7830858591660486</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.7868113598000909</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.7904375157106819</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.7939574149300678</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.7973664588829956</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8006619633117151</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8038428138456438</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8069091701051825</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8098622127231697</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8127039281549683</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8154369266208942</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8180642889767259</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8205894387353054</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8230160358622025</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8253478893397096</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8275888858355477</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8297429321258754</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8318805784604276</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8339400117479914</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8359232540216078</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.837833666717007</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8396745877425436</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7221645046089299</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7106056707542382</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7024624900590876</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6971545837415446</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6941897187208479</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6931461345818328</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.693662373629673</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6954296891545397</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.698185549380278</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7017078709990116</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7058098542708733</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7103353579078152</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7151547703719719</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7201613390141155</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7252679198701024</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7304041118518101</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7355137402425378</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7405526559289474</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7454868186044541</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7502906341698378</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7549455186535244</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7594386631107952</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.7637619760875628</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.7679111823121129</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.7718850582791713</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.7756847872946067</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.7793134183422953</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.7827754148086458</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.7860762806507129</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.7892222530197426</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.7922200516550255</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.7950766765467183</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.7977992464358893</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8003948716816019</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8028705558850997</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8052331214273148</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8074891547552454</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.80964496785256</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8117670616688709</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8138025801800037</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8157551987115114</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8176294185597262</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8194296918396863</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3066114102724387</v>
+        <v>-0.388484531405109</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3171415177393752</v>
+        <v>-0.3914174089723574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2508445338049911</v>
+        <v>-0.4244740690991697</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2251170848256619</v>
+        <v>-0.3669978345692769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1726357976299394</v>
+        <v>-0.3835623551530521</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1456377525183181</v>
+        <v>-0.3953804278845049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0411171769375434</v>
+        <v>-0.2128215971196397</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07508467623793266</v>
+        <v>-0.2768032666367231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1739346451002729</v>
+        <v>-0.1178138514474628</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1508541478869574</v>
+        <v>-0.09251671575425606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4364724120039263</v>
+        <v>-0.3675778940467194</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.455675197302285</v>
+        <v>-0.3540105305702276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3003817713584227</v>
+        <v>-0.4959516217926717</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2675861058738578</v>
+        <v>-0.4014203587121239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3707575158907507</v>
+        <v>-0.5074432674552886</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3908074223347818</v>
+        <v>-0.4198084368880229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.33383859673292</v>
+        <v>-0.5631564098676105</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3596325379356408</v>
+        <v>-0.3666393816881962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2010423333148292</v>
+        <v>-0.2264848141108131</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2466499125343932</v>
+        <v>-0.3058016753278167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.06301578354869523</v>
+        <v>-0.3131388064915851</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07800631489799899</v>
+        <v>-0.2953366344957017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.008226297103276891</v>
+        <v>0.1123417641906094</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.008176485672542824</v>
+        <v>0.007297919376174351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1022198530899882</v>
+        <v>-0.1039719205296165</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08665506124432008</v>
+        <v>-0.1276674254616423</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.01868238988019597</v>
+        <v>-0.1203792822528296</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02695589753023021</v>
+        <v>-0.04764335489635556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3496677347171772</v>
+        <v>-0.1991460628533611</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4036244154493354</v>
+        <v>-0.1067347119136941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6568546123233351</v>
+        <v>0.01623643607608446</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6488478964810216</v>
+        <v>0.08112199228031655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1183010935448263</v>
+        <v>0.08781708433588127</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07863562390646171</v>
+        <v>0.09922421118552731</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4419980813124531</v>
+        <v>0.004903479896118251</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4195822116113737</v>
+        <v>0.06325074652347444</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3168396211686701</v>
+        <v>-0.06120257041936774</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3467898443532377</v>
+        <v>-0.02152986183189824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4635061245107507</v>
+        <v>-0.1233175890892114</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5337064219450647</v>
+        <v>-0.07416718027996146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4145103734692361</v>
+        <v>0.03556270798435462</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4192817319970564</v>
+        <v>0.09065920898830772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.02391382607094628</v>
+        <v>0.130141022801464</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.03618381376271146</v>
+        <v>0.07021733751151711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.260708803401308</v>
+        <v>0.5287553875309271</v>
       </c>
       <c r="B24" t="n">
-        <v>4.326030357861844</v>
+        <v>0.3487956199618114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5166334873744238</v>
+        <v>0.2038741664190011</v>
       </c>
       <c r="B25" t="n">
-        <v>0.492050565015991</v>
+        <v>0.1534144205454203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.443747940040056</v>
+        <v>0.18729772488959</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3860257590419049</v>
+        <v>0.1555936490986327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3129906351882318</v>
+        <v>0.1498935711103744</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2942499834532983</v>
+        <v>0.1404457159736983</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.092827871570549</v>
+        <v>0.2773270094443454</v>
       </c>
       <c r="B28" t="n">
-        <v>1.030639423042036</v>
+        <v>0.1828995105258386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.176879406946966</v>
+        <v>0.5388910676282144</v>
       </c>
       <c r="B29" t="n">
-        <v>5.686085270340403</v>
+        <v>0.4122407233067132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9977811547907246</v>
+        <v>0.2225758275239678</v>
       </c>
       <c r="B30" t="n">
-        <v>0.965142905670423</v>
+        <v>0.1825663908112712</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1598168145072938</v>
+        <v>0.1350011835774995</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2246992233461589</v>
+        <v>0.110429181616766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.823436015886382</v>
+        <v>0.1658953502344915</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7843652602154243</v>
+        <v>0.1633259084726907</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8915251300014139</v>
+        <v>0.1513595288739798</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9100058871148673</v>
+        <v>0.1521463839013246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6504743639148228</v>
+        <v>0.1653742679550473</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6797048748884066</v>
+        <v>0.09916269753708935</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8137439916210737</v>
+        <v>0.177073582281517</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8008466521657421</v>
+        <v>0.1143981581327905</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7574796785154954</v>
+        <v>0.1127578816511595</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7522427518756689</v>
+        <v>0.06205583585826165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7428215458528931</v>
+        <v>0.1980261628450812</v>
       </c>
       <c r="B37" t="n">
-        <v>0.725255320649142</v>
+        <v>0.05690202298089145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7626434722570516</v>
+        <v>0.3637670641608936</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7189995198482038</v>
+        <v>0.2984508649202887</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5589722060325626</v>
+        <v>-0.04301544970390719</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5663840323053958</v>
+        <v>-0.1390648837184182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7254836493515955</v>
+        <v>0.1965181960545027</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7343382325555655</v>
+        <v>0.1418565862980938</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5716563548458848</v>
+        <v>-0.01445158207321362</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5550826488079144</v>
+        <v>-0.03275906288244444</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7040006529093664</v>
+        <v>0.1553468126097762</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6771058842947451</v>
+        <v>0.1522238681624847</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7289000133994896</v>
+        <v>0.2597195569870762</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7073435764176282</v>
+        <v>0.2004962602694975</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6568412306519309</v>
+        <v>-0.06259852868307275</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6637697425569724</v>
+        <v>-0.08756464595435048</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6152767098234584</v>
+        <v>-0.1398700938403052</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6303503093024357</v>
+        <v>-0.1232395697573842</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.280808095904601</v>
+        <v>-0.1768612919663619</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.28606498749736</v>
+        <v>-0.1807300489219615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9933001872166179</v>
+        <v>-0.178646714833852</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9985240308883783</v>
+        <v>-0.1835581835252835</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8899510455151588</v>
+        <v>-0.2200293231343671</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8931648659201764</v>
+        <v>-0.2049292595153646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6532884008638121</v>
+        <v>-0.2173539483118564</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6587458580148532</v>
+        <v>-0.2094446973979209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.06185024582570487</v>
+        <v>-0.152842649386205</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05851859617447983</v>
+        <v>-0.1514611093938477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8816756665063341</v>
+        <v>-0.2088565662868457</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8878024941345092</v>
+        <v>-0.2291447312577234</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8816756665063341</v>
+        <v>-0.2088565662868457</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8878024941345092</v>
+        <v>-0.2291447312577234</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.102011844593709</v>
+        <v>-0.1871987613209684</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.114620358715956</v>
+        <v>-0.17867393589209</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.2056888600414512</v>
+        <v>-0.2292806647691895</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2008549705718582</v>
+        <v>-0.2193613656124554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.017679521936941</v>
+        <v>-0.1736771729705233</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.0192210989668</v>
+        <v>-0.1603403775775097</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9237169242314447</v>
+        <v>-0.1693028641325004</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9080489991024606</v>
+        <v>-0.1727691167437934</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.971437848455589</v>
+        <v>-0.2114115535736886</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9381462945588478</v>
+        <v>-0.1766141786474135</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.185618765900811</v>
+        <v>-0.1970921436752836</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.142081707100022</v>
+        <v>-0.2233805576375427</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8983510060640539</v>
+        <v>-0.2571481345669195</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.866513041817719</v>
+        <v>-0.2520434188710283</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5387560360652253</v>
+        <v>-0.3057288860745265</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5075653945589996</v>
+        <v>-0.285298308011424</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3627529280652958</v>
+        <v>-0.2299735983039812</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3692306399011779</v>
+        <v>-0.196952230324226</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.269621474706452</v>
+        <v>-0.219350464163844</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.217607622281926</v>
+        <v>-0.134454463472991</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7988184844399346</v>
+        <v>-0.3594398267956446</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7624594456434794</v>
+        <v>-0.3961199357731875</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9024344655387532</v>
+        <v>-0.2714261672907615</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9044845088990647</v>
+        <v>-0.2569065801217919</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1603663218379324</v>
+        <v>-0.3511372033851052</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1236732446001867</v>
+        <v>-0.321417880495291</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8541690763357341</v>
+        <v>-0.1712564983919799</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8025660841616801</v>
+        <v>-0.137149999642194</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8699446244936903</v>
+        <v>-0.1685632364568675</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7845681523996909</v>
+        <v>-0.1502495909086008</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.388484531405109</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3914174089723574</v>
+        <v>-24.58956138803087</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1131.275514547756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-60828.66430433126</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3773382.281806996</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-242995042.3895128</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-15652024192.93002</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-887149806941.6016</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-46910117244192.11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2092532107010175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-6.4740623213686e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-9.340571750729523e+16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.718681261562783e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.907356615269305e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.718350127634315e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.364849922196648e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.001923457007701e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.144428594459874e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.128402423845505e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4244740690991697</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3669978345692769</v>
+        <v>-34.56844314735073</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1887.853100587644</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-129547.8433432773</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-11555931.47627431</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1114214900.773825</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-107853918378.7859</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-7751233924308.127</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-340219364141865</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.522650581817526e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.447289946156085e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.594413961309838e+21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.071837923371498e+23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.437747697829213e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.801120685807895e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.121942048976917e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.386356559934756e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.63519257823544e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.926775373546364e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.3835623551530521</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3953804278845049</v>
+        <v>-31.17301033315279</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2139.218570070158</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-178304.7590062504</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-16643375.55663897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1576791050.400549</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-147659959538.8514</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12482998172366.11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1002372395477071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7.454548393305835e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-5.076598357452169e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.277082298416455e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.214741115811509e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.579347845582372e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1.090204389836361e+26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-7.735195719269245e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-6.012724472049466e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-4.937875570176454e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-3.869783933812108e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.2128215971196397</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2768032666367231</v>
+        <v>-26.09618695176752</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1982.492097775811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-164205.5834750694</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-14759649.79866816</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1338015761.24099</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-119758347050.618</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9336232510369.482</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-674711043436768.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.069904823525139e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.610089966715731e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.09774835520607e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.200343953992636e+22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.698712550596682e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.032743433188479e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.165565493171409e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.132645509891693e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.040119135133635e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.972603220411005e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1178138514474628</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.09251671575425606</v>
+        <v>-2.406616369897223</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-95.92744518513882</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3620.075564376231</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53575.68997221952</v>
+      </c>
+      <c r="F6" t="n">
+        <v>52698672.77778241</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9798909667.316822</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2145709511056.188</v>
+      </c>
+      <c r="I6" t="n">
+        <v>309585150633064.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.103569170522947e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.219683349956825e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.408706040080514e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.505286213620431e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.358374767611551e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.051723732024272e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.459721043850789e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9.578023699647539e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.583048934126314e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.654383149799292e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.3675778940467194</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3540105305702276</v>
+        <v>-20.28782442605615</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1030.147770486238</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-58972.83999750986</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3643779.872863252</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-226266889.9899487</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-13815434782.56923</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-746082032023.6003</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-37329324053936.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1609543960061321</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5.279597539585088e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-8.173146240997949e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.429032220986547e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.490562220951183e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.071596844775616e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.702963149788451e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.285355776195794e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.211229411216709e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.497682218588922e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.4959516217926717</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4014203587121239</v>
+        <v>-23.37399837112478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1214.235596956699</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-82118.92951459775</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-6458793.943929449</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-522139485.4860115</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-41881520560.41062</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-3026205547010.435</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-208649674132543.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.328774948653566e+16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-7.712097939886044e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-4.224391441338365e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-2.410126692193193e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.431575394509011e+23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-7.851622635179777e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-3.944631441457352e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-1.739478244103296e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-4.323958661255749e+29</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.357091229440235e+31</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.5074432674552886</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4198084368880229</v>
+        <v>-23.22513985173295</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1086.660723447699</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-61887.2165296196</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4024555.589269859</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-268554231.5732051</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17745012165.59374</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1023508906451.539</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-53656353796228.41</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2348540342472140</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-6.814411344922406e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.390798888031939e+17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.603629863284044e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.756468289508188e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.436445030971397e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.916527133115126e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.398491579699191e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.924518359554614e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.099858497530488e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.5631564098676105</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3666393816881962</v>
+        <v>-44.62408780428578</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3066.250625207401</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-261559.1439728285</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-28210094.28124344</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3260148156.095411</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-380879965271.1472</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-39016683623895.18</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-3675015358095094</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2.970889714676618e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1.752281282694093e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.290480067295357e+20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.255791580998644e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.73916050316275e+25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.452364601365364e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.106583654487917e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.48616343631757e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.773244644664257e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.045814650851165e+36</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2264848141108131</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3058016753278167</v>
+        <v>-18.48294892680004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1035.348112834832</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-66929.91351982634</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4685733.415502048</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-326698464.6813852</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-22190532357.19645</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1333762487919.507</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-73719969718349</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3606454388910176</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.469681341442146e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.602486067148708e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-9.982087173999487e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.679354858354334e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.114551576640536e+23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.612408358594908e+25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.534742010179368e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.284438227880689e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.312717395494161e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.3131388064915851</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2953366344957017</v>
+        <v>-21.12029764354797</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-991.6485779521061</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-55003.12998747243</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3520670.863021601</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-230989625.089063</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-14951583391.005</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-804311752631.3132</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-36672572710663.21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1016461917981681</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.60557373954692e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.474674132764946e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.37499455374716e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.827078542278966e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.29064365936014e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.888211054611113e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.737700147776257e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.896334622981924e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.324302870849355e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>0.1123417641906094</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007297919376174351</v>
+        <v>-1.0893738151839</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-627.5434300294194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-68722.88245852159</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-6502146.038311629</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-581412312.2072587</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-49586622447.72487</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3593310434273.664</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-232908529054224.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.310584716271358e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-5.796051128955008e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.471942997042147e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.707473017577711e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.032850787041016e+23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.357755209233636e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.408403296145608e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.294319574026013e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.140433244334851e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.009785820107566e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.1039719205296165</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1276674254616423</v>
+        <v>-7.510794760789194</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-344.9703016317</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-17426.54906004025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-956831.2559419097</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-53594569.05185252</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2914472251.092349</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-78124687865.32455</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3836434511858.65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>858424553966285.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.36342371517476e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.124149320070563e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.199127452150868e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.430269045352109e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.061156621943273e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.032637386683852e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.304564206181533e+28</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8.259699182258641e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.267864794381256e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.1203792822528296</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.04764335489635556</v>
+        <v>-4.775538425632607</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-243.393388044489</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-10772.73112062805</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-480388.8209226236</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-21437126.46009988</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-925454953.4421558</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-21959212263.7835</v>
+      </c>
+      <c r="I15" t="n">
+        <v>447294762837.8079</v>
+      </c>
+      <c r="J15" t="n">
+        <v>109938604247733.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9965402571105172</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.934202504199122e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.176683266601511e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.347201508822483e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.280057358519108e+23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.733002325817476e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.433210747874695e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.729532980849749e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.773201398211888e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.1991460628533611</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1067347119136941</v>
+        <v>-6.07703769424345</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-161.100072755075</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4891.682078079368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-161132.0148801093</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4960099.201028049</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-104188719.3252098</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9832682042.957605</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1437138119327.46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>117908792270853</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8014629422171686</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.94368386414055e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.855959443333379e+19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.575874223912721e+21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8.377160427085187e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.261890675813717e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.087495329908249e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.006087348721273e+28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.885492480272853e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>0.01623643607608446</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08112199228031655</v>
+        <v>1.944598773753023</v>
+      </c>
+      <c r="C17" t="n">
+        <v>226.9771740656131</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14785.23584338856</v>
+      </c>
+      <c r="E17" t="n">
+        <v>813350.3161881771</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42430493.08567864</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2158831721.836353</v>
+      </c>
+      <c r="H17" t="n">
+        <v>112648438706.1288</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5872576131935.634</v>
+      </c>
+      <c r="J17" t="n">
+        <v>300497669022500.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.506310382393326e+16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.396965727200265e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.56407871884789e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.695877784086847e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8.055304284329407e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.822364776529373e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.813466745964035e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8.615706016339765e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.100393537276413e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.08781708433588127</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09922421118552731</v>
+        <v>0.7412783119925437</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.017756223314791</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4665.316938576539</v>
+      </c>
+      <c r="E18" t="n">
+        <v>429970.0464198173</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30981189.74447913</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2110927120.730815</v>
+      </c>
+      <c r="H18" t="n">
+        <v>190692775052.5847</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15975432300085.36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1260258076635047</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.27290547476063e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.27091777839902e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.90633558766033e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.335595637436635e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.398287775986734e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.38393654503576e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.033930167615808e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.030390324190285e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.828435157422363e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.004903479896118251</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06325074652347444</v>
+        <v>-2.49436116532002</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-299.7203144286378</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-17681.77571173694</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-980668.3916297704</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-52472233.98862898</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2689311361.850632</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-95801366993.1889</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1609695113646.214</v>
+      </c>
+      <c r="J19" t="n">
+        <v>168016976839050.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.505222248723077e+16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.182296245049163e+18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.522232470857005e+20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.659291620796109e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.971456942365032e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.567033135031106e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.065133416462491e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.180784989601719e+29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6.796118769367396e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.06120257041936774</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.02152986183189824</v>
+        <v>-0.9894023396014793</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-24.86705672269198</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-820.766172992614</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-28969.57223623974</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1324532.608338213</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-62237640.06906325</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3672091659.125976</v>
+      </c>
+      <c r="I20" t="n">
+        <v>610955000829.3344</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48739804754161.68</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3138633566735538</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.805065375088464e+17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.602124756886391e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.850115140537625e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.370737865862881e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.113700711616412e+24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.053908605247035e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.261472735330301e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.019343252500637e+29</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>-0.1233175890892114</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.07416718027996146</v>
+        <v>-7.208405707344657</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-252.8067527432525</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-10134.67007541918</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-420496.2222060438</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-15527709.66213098</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-378822811.875764</v>
+      </c>
+      <c r="H21" t="n">
+        <v>42817532134.59445</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7553455894613.003</v>
+      </c>
+      <c r="J21" t="n">
+        <v>772522994515403.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.745689836426451e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.541394751728717e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.371833529410177e+20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.272252182715537e+22</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.313059971682071e+24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.53719458205373e+26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.697851959986572e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.979405558793449e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.720482707959134e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>0.03556270798435462</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09065920898830772</v>
+        <v>5.054190313689512</v>
+      </c>
+      <c r="C22" t="n">
+        <v>421.7649470813032</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32001.25784680553</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2313758.218113677</v>
+      </c>
+      <c r="F22" t="n">
+        <v>162086249.3443654</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11054436444.6656</v>
+      </c>
+      <c r="H22" t="n">
+        <v>782718694340.449</v>
+      </c>
+      <c r="I22" t="n">
+        <v>54564703953467.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3719339130498856</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.507209807503956e+17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.694774274195723e+19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.151089660044805e+21</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.743131931944086e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.148059738917058e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.364494708501477e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.163392200119365e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.382754885934929e+30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8.877782474742028e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.130141022801464</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07021733751151711</v>
+        <v>2.601566966641126</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.72414459604079</v>
+      </c>
+      <c r="D23" t="n">
+        <v>124.8452747145384</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38147.93902355945</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5507383.213805825</v>
+      </c>
+      <c r="G23" t="n">
+        <v>636275400.2913065</v>
+      </c>
+      <c r="H23" t="n">
+        <v>157659600241.0113</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20091873555918.53</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2012198745225909</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.769452809156172e+17</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.412096311508344e+19</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.042227228510526e+21</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.350418843177522e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.090177026499448e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.440789289651417e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.27635210986001e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.494304935025616e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9.864219000381528e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.5287553875309271</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3487956199618114</v>
+        <v>1.118491644966912</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.332869746903734</v>
+      </c>
+      <c r="D24" t="n">
+        <v>32.13749777130035</v>
+      </c>
+      <c r="E24" t="n">
+        <v>214.2380630539361</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1474.837220411692</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10173.16379271524</v>
+      </c>
+      <c r="H24" t="n">
+        <v>66889.84215294011</v>
+      </c>
+      <c r="I24" t="n">
+        <v>429746.6111181447</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2543329.153654847</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13854019.51145971</v>
+      </c>
+      <c r="L24" t="n">
+        <v>74659716.72723429</v>
+      </c>
+      <c r="M24" t="n">
+        <v>438946837.8746828</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2663563301.096315</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15271211968.83249</v>
+      </c>
+      <c r="P24" t="n">
+        <v>78814939188.28876</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>324659631342.5269</v>
+      </c>
+      <c r="R24" t="n">
+        <v>564138817433.4883</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-8277001132405.375</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.2038741664190011</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1534144205454203</v>
+        <v>2.560218019709633</v>
+      </c>
+      <c r="C25" t="n">
+        <v>39.52617660855296</v>
+      </c>
+      <c r="D25" t="n">
+        <v>822.885018909222</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18253.11823587218</v>
+      </c>
+      <c r="F25" t="n">
+        <v>408148.8952604474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9112095.421925031</v>
+      </c>
+      <c r="H25" t="n">
+        <v>197528515.8123174</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4238097039.483019</v>
+      </c>
+      <c r="J25" t="n">
+        <v>89230593838.92288</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1848964484724.819</v>
+      </c>
+      <c r="L25" t="n">
+        <v>38143336701465.65</v>
+      </c>
+      <c r="M25" t="n">
+        <v>794202575257725</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.675040251923442e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.606085436467761e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.058182401759059e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.868453173195574e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.404862219528423e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.034144220835705e+23</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.18729772488959</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1555936490986327</v>
+        <v>2.150947960936496</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23.60204327266672</v>
+      </c>
+      <c r="D26" t="n">
+        <v>367.2158428089099</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6489.50453659973</v>
+      </c>
+      <c r="F26" t="n">
+        <v>118870.8195905982</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2206303.552065283</v>
+      </c>
+      <c r="H26" t="n">
+        <v>41773888.45879486</v>
+      </c>
+      <c r="I26" t="n">
+        <v>787335348.3493795</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14828983022.98322</v>
+      </c>
+      <c r="K26" t="n">
+        <v>277771519272.1361</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5135202080116.252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>93218060349024.8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1680106864500205</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.07530055155017e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.759681281731766e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.101368502845467e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.126431837183029e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.097519467020101e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1498935711103744</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1404457159736983</v>
+        <v>1.994329889639131</v>
+      </c>
+      <c r="C27" t="n">
+        <v>21.76269184081648</v>
+      </c>
+      <c r="D27" t="n">
+        <v>305.7313759370684</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4739.229729079735</v>
+      </c>
+      <c r="F27" t="n">
+        <v>75494.94853192066</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1212810.578115401</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19309558.60620502</v>
+      </c>
+      <c r="I27" t="n">
+        <v>306529926.6308778</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4825846105.735835</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75639173243.17316</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1190382211882.816</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18914939656885.44</v>
+      </c>
+      <c r="N27" t="n">
+        <v>303078189815861.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4914796440804235</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.105242191347856e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.356719814585442e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.285931014320114e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.845616134155498e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.2773270094443454</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1828995105258386</v>
+        <v>2.323844289085066</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30.4886986959674</v>
+      </c>
+      <c r="D28" t="n">
+        <v>510.5280085146085</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9237.031565650273</v>
+      </c>
+      <c r="F28" t="n">
+        <v>168326.6509814736</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3025655.721091818</v>
+      </c>
+      <c r="H28" t="n">
+        <v>49155983.44387426</v>
+      </c>
+      <c r="I28" t="n">
+        <v>751090410.9251014</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10400753948.0363</v>
+      </c>
+      <c r="K28" t="n">
+        <v>126479935538.0466</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1361599439543.726</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14633733226069.46</v>
+      </c>
+      <c r="N28" t="n">
+        <v>157180005699184.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1202054653313218</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2294576343725568</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-1.186909599062141e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-3.483320094213337e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-9.761000740937158e+19</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.5388910676282144</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4122407233067132</v>
+        <v>1.588912554275545</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.184909306688786</v>
+      </c>
+      <c r="D29" t="n">
+        <v>53.30413098644257</v>
+      </c>
+      <c r="E29" t="n">
+        <v>372.1256243288009</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2615.218803950428</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18237.93965788061</v>
+      </c>
+      <c r="H29" t="n">
+        <v>123016.3791314035</v>
+      </c>
+      <c r="I29" t="n">
+        <v>816825.6002959749</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5198440.368534347</v>
+      </c>
+      <c r="K29" t="n">
+        <v>31492851.53419495</v>
+      </c>
+      <c r="L29" t="n">
+        <v>182749746.6856441</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1021864792.990242</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5410845120.412244</v>
+      </c>
+      <c r="O29" t="n">
+        <v>26709829124.54259</v>
+      </c>
+      <c r="P29" t="n">
+        <v>123023626134.4281</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>515157077321.3042</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1511656979294.316</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-5158876992427.594</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2225758275239678</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1825663908112712</v>
+        <v>1.856352904885982</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.01690670088789</v>
+      </c>
+      <c r="D30" t="n">
+        <v>223.9150002711534</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3382.05309418103</v>
+      </c>
+      <c r="F30" t="n">
+        <v>52874.66915871768</v>
+      </c>
+      <c r="G30" t="n">
+        <v>837230.2048403006</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12980064.46151388</v>
+      </c>
+      <c r="I30" t="n">
+        <v>202052327.2580395</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3082871241.329359</v>
+      </c>
+      <c r="K30" t="n">
+        <v>45624213703.27977</v>
+      </c>
+      <c r="L30" t="n">
+        <v>651212680223.9976</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8932286494616.262</v>
+      </c>
+      <c r="N30" t="n">
+        <v>119415024417512.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1607176106731270</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.274886818687519e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.46087756550213e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.477418425523139e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.579603710494979e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.1350011835774995</v>
       </c>
       <c r="B31" t="n">
-        <v>0.110429181616766</v>
+        <v>1.716295121895753</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.79802840277631</v>
+      </c>
+      <c r="D31" t="n">
+        <v>202.6235174331111</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2968.112152705291</v>
+      </c>
+      <c r="F31" t="n">
+        <v>45599.16897734948</v>
+      </c>
+      <c r="G31" t="n">
+        <v>724683.3249888576</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12329626.8176545</v>
+      </c>
+      <c r="I31" t="n">
+        <v>214299563.8073976</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3756351191.713105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>65157984809.75284</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1097205061792.154</v>
+      </c>
+      <c r="M31" t="n">
+        <v>17830679054488.46</v>
+      </c>
+      <c r="N31" t="n">
+        <v>286016457202441.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4633690348108316</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.601222126872056e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.259474786404398e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.09429922606244e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.474300450935888e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.1658953502344915</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1633259084726907</v>
+        <v>2.497361240040912</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.30806366788713</v>
+      </c>
+      <c r="D32" t="n">
+        <v>561.0518949630757</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11264.12907789343</v>
+      </c>
+      <c r="F32" t="n">
+        <v>239936.8946187352</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5247353.020065537</v>
+      </c>
+      <c r="H32" t="n">
+        <v>112030028.0812632</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2366609223.277068</v>
+      </c>
+      <c r="J32" t="n">
+        <v>48946795471.44718</v>
+      </c>
+      <c r="K32" t="n">
+        <v>987754009480.0134</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19552556673753.67</v>
+      </c>
+      <c r="M32" t="n">
+        <v>380585394842207.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7335594060284314</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.444709452226244e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.027107747954651e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6.817551854027689e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.590100914061118e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.675767677014377e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1513595288739798</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1521463839013246</v>
+        <v>2.705774115109806</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.92633814534512</v>
+      </c>
+      <c r="D33" t="n">
+        <v>616.882390287106</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12550.36060428325</v>
+      </c>
+      <c r="F33" t="n">
+        <v>273055.3873729291</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6173909.29075709</v>
+      </c>
+      <c r="H33" t="n">
+        <v>135164131.2563936</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3049740207.434388</v>
+      </c>
+      <c r="J33" t="n">
+        <v>65464781375.79013</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1283244086145.075</v>
+      </c>
+      <c r="L33" t="n">
+        <v>21887523044732.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>273337114503530.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>246182793959498</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1.283772132223652e+17</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-5.327682802985382e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.557754932298632e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.112775977162818e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.114961296222405e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.1653742679550473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09916269753708935</v>
+        <v>2.505221969604404</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.38907679907481</v>
+      </c>
+      <c r="D34" t="n">
+        <v>471.9597164535991</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8828.356655292895</v>
+      </c>
+      <c r="F34" t="n">
+        <v>177820.6927992504</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3856684.375347241</v>
+      </c>
+      <c r="H34" t="n">
+        <v>102767454.5158774</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2828366787.503745</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77390993120.6329</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2045854090699.025</v>
+      </c>
+      <c r="L34" t="n">
+        <v>51149602031725.98</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1205705171238963</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.76878952579735e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.390970583923876e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.482909655933149e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.452158151088106e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.041846055371927e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.869763443934392e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.177073582281517</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1143981581327905</v>
+        <v>14.25573396693662</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2510.233108544685</v>
+      </c>
+      <c r="D35" t="n">
+        <v>470730.2023466114</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89219665.19077021</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17107044797.18608</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3193943362497.722</v>
+      </c>
+      <c r="H35" t="n">
+        <v>470965299694263.7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.57098681930132e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.676542836416792e+18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-1.544092807329451e+19</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-1.149762417135938e+23</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-3.149695096609299e+25</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-6.582663385326423e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-1.277994743429672e+30</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-2.302406607366631e+32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-3.898605521334939e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-6.429308763819782e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1.071319436868108e+39</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.1127578816511595</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06205583585826165</v>
+        <v>12.17487064024715</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1646.758404417827</v>
+      </c>
+      <c r="D36" t="n">
+        <v>223503.9498446374</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30567191.09919336</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4225917843.806851</v>
+      </c>
+      <c r="G36" t="n">
+        <v>575945362499.054</v>
+      </c>
+      <c r="H36" t="n">
+        <v>51019282949260.78</v>
+      </c>
+      <c r="I36" t="n">
+        <v>813855444276625.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-9.43109702951129e+17</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-2.939052357023729e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-6.349939816999666e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.165829381429024e+25</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.970928625805354e+27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-3.178342477722224e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-4.854764405627895e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-7.073729678601352e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-1.009418154911712e+36</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-1.452273781595625e+38</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>0.1980261628450812</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05690202298089145</v>
+        <v>13.0463312351083</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1383.536531233782</v>
+      </c>
+      <c r="D37" t="n">
+        <v>128218.9365538516</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11397232.6427002</v>
+      </c>
+      <c r="F37" t="n">
+        <v>936721814.6796641</v>
+      </c>
+      <c r="G37" t="n">
+        <v>64242516274.55505</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1118522538570.492</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1191377240223639</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-2.721067387382615e+17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4.71519978277572e+19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-7.060535328560758e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-9.57439530171822e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.228881092228157e+26</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1.529768090739348e+28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.831629120224645e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-2.116975795636479e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-2.408536724441706e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-2.757481518640829e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3637670641608936</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2984508649202887</v>
+        <v>53.87377058060341</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7906.656055995702</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1233141.353132234</v>
+      </c>
+      <c r="E38" t="n">
+        <v>197806529.5507126</v>
+      </c>
+      <c r="F38" t="n">
+        <v>31942222908.94353</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5129374091898.496</v>
+      </c>
+      <c r="H38" t="n">
+        <v>792493266217959.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.176189787638504e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.689768452915992e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.339348079209372e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.103727450432698e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.923002146352807e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.663231931522572e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.377962166936058e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.752552626825805e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.030511680014633e+34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.767450112461804e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.928758105919189e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.04301544970390719</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1390648837184182</v>
+        <v>-19.81277358030876</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-7364.182577365344</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2542145.599939581</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-808136430.9534642</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-242477902011.9883</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-69818568234326.65</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.94288121001911e+16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-5.267743175866683e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1.398710228123537e+21</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3.635121285041686e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-9.260327276567236e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-2.324714317273168e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-5.79288330992965e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-1.437555658086222e+33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-3.556447912690849e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-8.78603217562981e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-2.170995014856879e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-5.370160961321139e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.1965181960545027</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1418565862980938</v>
+        <v>31.13798792512204</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3008.944515588099</v>
+      </c>
+      <c r="D40" t="n">
+        <v>262454.8870180091</v>
+      </c>
+      <c r="E40" t="n">
+        <v>24107667.27158897</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2223999877.361978</v>
+      </c>
+      <c r="G40" t="n">
+        <v>193436683242.25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-210222228656.5083</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-3560138614815977</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1.031495197282892e+18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-2.165747566933073e+20</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-3.793925748024786e+22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-5.877595559349189e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-8.571902551983815e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1.224259410280106e+29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.699003483756378e+31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-2.295224441351026e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-3.06474486847602e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-4.113126749693867e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.01445158207321362</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.03275906288244444</v>
+        <v>0.648430201106701</v>
+      </c>
+      <c r="C41" t="n">
+        <v>920.7123981496137</v>
+      </c>
+      <c r="D41" t="n">
+        <v>324416.924535969</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78238222.18971094</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15849128834.28011</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2877039251412.333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>461543108707349.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.119516701538034e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7.328128231469138e+18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7.637331057034452e+20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.394906911146112e+22</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.488654493831187e+24</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.715899812246461e+27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-4.807052569555774e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-9.723364597466203e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.637902653620054e+34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-2.53933881370733e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-4.020326640228902e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.1553468126097762</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1522238681624847</v>
+        <v>13.52081474255006</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1307.708835372738</v>
+      </c>
+      <c r="D42" t="n">
+        <v>156436.6146574691</v>
+      </c>
+      <c r="E42" t="n">
+        <v>18355308.60413203</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2158992988.457615</v>
+      </c>
+      <c r="G42" t="n">
+        <v>252744527792.7978</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27224065406210.85</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2603001021885627</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.352464658336603e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.90062504058738e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.031150400388777e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-4.678877510028624e+22</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.520102998838118e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-4.733076796057525e+27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-6.614165218130479e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-7.831480523656033e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-8.630213856549762e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-9.724946194935072e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.2597195569870762</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2004962602694975</v>
+        <v>58.74100549539821</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12367.06699719886</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2476980.267118718</v>
+      </c>
+      <c r="E43" t="n">
+        <v>487026167.4443781</v>
+      </c>
+      <c r="F43" t="n">
+        <v>94903010678.27052</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18367802948278.09</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3442619668955591</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.308285766834276e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.111073065299078e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.837725184317324e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2.721061858995911e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.20684120442066e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.789503629259355e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-4.08164469937496e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-1.698922157868076e+33</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-3.754635584798651e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-6.777875364872915e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1.296109869264186e+40</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>-0.06259852868307275</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.08756464595435048</v>
+        <v>-21.06097361836426</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5296.887559283393</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1191574.929021468</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-255804300.263647</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-52982938266.10102</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-10577607425933.93</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-2150836558274575</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4.201367153753406e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-7.979991152134275e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.509987265048067e+22</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.944713187287302e+24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-5.980423687133871e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.215547268491326e+29</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-2.445533928051708e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-4.835425031007637e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-9.388996577576266e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.810089553901222e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-3.503675545699055e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.1398700938403052</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1232395697573842</v>
+        <v>-9.621460448581416</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1002.515600230589</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-131183.8246678937</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-18038937.96678395</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-2394681203.104712</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-306093375854.7913</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-39691352760714.32</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-5048732780259582</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-6.246700239704846e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-7.581945005510777e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-9.133412679177472e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.097395299620107e+24</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.30489895798605e+26</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.527980132261441e+28</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.751500432753183e+30</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.968231596662158e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-2.193188189755765e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-2.454271870684261e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1768612919663619</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1807300489219615</v>
+        <v>-5.449162694740291</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-189.7668646802922</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6296.329956552934</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-218305.6895802761</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-7528005.933818007</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-252462285.779945</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-7019487999.004764</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-171388049574.7117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-3095969487401.591</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-10632676815245.31</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2209155424657860</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.253802651303688e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.23307324944233e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.076907353864487e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>7.874757945300294e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.884611323296331e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.04141555206604e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.757221469444067e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.178646714833852</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1835581835252835</v>
+        <v>-7.156857304203767</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-302.0127093057986</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-12108.74633090237</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-503985.9445944779</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-20858072.17659153</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-841470016.4421036</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-28675012523.54552</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-877722551411.3423</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-21473061931799.95</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-277949421061205</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8106829481185184</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7.798530038828646e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.193987191431675e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.083444427487563e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>9.711650674173595e+22</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.326694363620518e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.891933128423593e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.264148557159321e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2200293231343671</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2049292595153646</v>
+        <v>-7.631921568808632</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-302.1633253044494</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-11717.33282530757</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-475717.4088113682</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-19256479.5121255</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-761636228.6789634</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-25761283075.70413</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-795889850129.4575</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-20605364602421.73</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-366619620657060.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-142740068308540</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.210621028511025e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.997215580029259e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.054230772444151e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.023744784691465e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.243775620334404e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>9.758729039542048e+25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.229190966574369e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2173539483118564</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2094446973979209</v>
+        <v>-9.931551777128075</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-471.8301740782283</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-22084.03621489216</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1080811.816063961</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-52731488.22714648</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2516901464.487728</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-103963347584.4219</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3965502254468.17</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-130590151140436.8</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-3313835153402532</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-4.558138526508899e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.915557812401562e+17</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.235809728538344e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9.412159912816104e+21</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5.830586577232767e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3.249602995530432e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.739398364774611e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.256925882960719e+28</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.152842649386205</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1514611093938477</v>
+        <v>-16.01819132847161</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1456.085271447483</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-116600.8576801857</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-9376439.888673786</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-746820808.832377</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-58266794987.77036</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-4014606214032.964</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-259062927002748.6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.495873890251249e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-7.390796102140977e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-3.083669766708364e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.242165933977646e+21</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-4.920776799088095e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-5.897379962476749e+23</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.378350025803187e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.942461047829509e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.001740699302191e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.98870672759612e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2088565662868457</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2291447312577234</v>
+        <v>-9.373071692471953</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-410.7573732938276</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-18093.73812431321</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-837765.7670080763</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-38690331.12586457</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1747015328.238149</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-68199347174.68971</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-2457908417652.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-76423510035089.84</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1824301911119889</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-2.276589963020853e+16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.379526284936387e+17</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.487695339877846e+19</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.607496735574943e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.699134341527846e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.431302501536508e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.292805699474923e+26</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.683535655048733e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2088565662868457</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2291447312577234</v>
+        <v>-9.373071692471953</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-410.7573732938276</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-18093.73812431321</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-837765.7670080763</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-38690331.12586457</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1747015328.238149</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-68199347174.68971</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-2457908417652.43</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-76423510035089.84</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1824301911119889</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-2.276589963020853e+16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5.379526284936387e+17</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.487695339877846e+19</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.607496735574943e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.699134341527846e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.431302501536508e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7.292805699474923e+26</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.683535655048733e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.1871987613209684</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.17867393589209</v>
+        <v>-5.256174463043681</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-179.8918080127493</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5810.480688195446</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-195994.4337800186</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-6591212.010173695</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-216106801.150228</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-5888968747.103246</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-142505220715.4009</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-2629938765965.175</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-16384192407306.91</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1318293985125586</v>
+      </c>
+      <c r="M53" t="n">
+        <v>7.826057876026755e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.2140751087861e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.252227705981687e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4.652493906830325e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.667603604167975e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5.887158019200856e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.075826045589028e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2292806647691895</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2193613656124554</v>
+        <v>-16.16968809773275</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1060.455142889054</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-68459.515395396</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4615952.674064482</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-311413846.4377863</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-20661104338.72881</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1211443142333.716</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-66961181349961.05</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-3338015954815865</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.445593228572388e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-5.44146958037403e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-2.02581397412665e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-7.646024081399804e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-1.686024436612964e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5.550946902824575e+24</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.080658596069493e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.074664233352353e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>9.710811261848829e+30</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1736771729705233</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1603403775775097</v>
+        <v>-5.673810061131396</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-233.5635016920971</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-8933.594660221597</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-353066.498052671</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-13825534.66663132</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-526554255.6168987</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-16724741402.7901</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-473621741297.3727</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-10420585660997.18</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-95209525578367.75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5699688416924024</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.229031129675916e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.053957909014352e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.380849906841131e+20</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.06132202963335e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.689925399311605e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6.917154909177413e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.828996231194068e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1693028641325004</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1727691167437934</v>
+        <v>-8.71395769669761</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-444.0702513705148</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-20955.19288090147</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1009925.268817733</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-48184302.36921674</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-2240766861.242272</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-89713521935.13956</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-3270459391665.772</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-99851816182661.98</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-2080252819782350</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1998610306892896</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2.869971489817406e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.1196554992027e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.318855124511637e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>7.379190480673424e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.862463706029398e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.968964863789393e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.002864938866569e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.2114115535736886</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1766141786474135</v>
+        <v>-7.173155450964305</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-292.7322480573133</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-11545.56847761752</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-475422.6767585888</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-19527079.75449631</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-782147500.550442</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-26036689043.63541</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-755641189239.15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-16209718991204.05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-60014827547403.12</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.72806874513794e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.182318213964299e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.958287170637974e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.825073331127097e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.267448890468261e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.456479360729553e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.312259760415879e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.833108468323798e+27</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1970921436752836</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2233805576375427</v>
+        <v>-9.11601451121988</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-407.1532535542466</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-17121.15851464278</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-729908.0619601855</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-30951673.71330279</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1285429118.299936</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-46037867965.8333</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1489943773972.443</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-39745141073824.93</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-651793044900951.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>9539086968448688</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.455508301420679e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.200633442775207e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4.997656975187292e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.452276417143802e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.126569524813114e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.047449288490626e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.271725436459733e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2571481345669195</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2520434188710283</v>
+        <v>-10.86714543478528</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-491.4782017683328</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-22026.47275829854</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1019785.39070223</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-47136985.3433173</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-2140039124.042521</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-85071437096.00726</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-3140616145420.058</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-101446266714426.1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2597290736342441</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-3.949054450359485e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.524759947372861e+17</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.605549268290365e+19</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.218972334323468e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.261601720837901e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.23487725852287e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.122921135713642e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.647676587301345e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.3057288860745265</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.285298308011424</v>
+        <v>-18.1793246498996</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1115.138930750988</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-70514.44762976658</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4655601.033883071</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-308371993.2040058</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-20165071281.68716</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1168553494488.341</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-63761511301019.77</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-3123028737960789</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.291793048310737e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-4.066597729004225e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-6.420170297541512e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.073593474194883e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>8.565376144232686e+23</v>
+      </c>
+      <c r="P60" t="n">
+        <v>8.033112857697723e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>6.169209956702e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4.443342960172964e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.226941710998532e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2299735983039812</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.196952230324226</v>
+        <v>-43.5140592446101</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-10402.106569775</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2160929.706906259</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-438670924.8252781</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-88040444798.04967</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-17367925775249.39</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-3063664726962801</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-5.131726838138424e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.909528400712355e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.105109976756189e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.453675993507064e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2.049796327884911e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-3.178988926096457e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-4.854307674388897e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-7.771459177052105e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-1.375464437490542e+35</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-2.575722246630769e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-4.72525777252864e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.219350464163844</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.134454463472991</v>
+        <v>-3.946720821468598</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-149.1309918907039</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4954.617736066928</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-167016.8055439073</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-5556424.385397051</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-179309261.153013</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4570410337.108898</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-95335676215.45511</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-939276792590.2861</v>
+      </c>
+      <c r="K62" t="n">
+        <v>45131209130735.53</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3603157707581294</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.632722647914626e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.31451894392043e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.357962978675686e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.486195778566553e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.965309470325764e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.024583343057534e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.551282846656445e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.3594398267956446</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3961199357731875</v>
+        <v>-16.05293291446872</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-674.4432385619367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-33636.98621083443</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1836745.850814386</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-101364581.3793122</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-5524462665.80969</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-273252586540.8126</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-12911673984747.15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-572406483840912.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-2.348573480832278e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-8.976119324180663e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-3.303771353024037e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1.141924182490398e+21</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-3.175655108171333e+22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-5.208808509670067e+23</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.397237246169018e+25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.470620293972318e+27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.323710487008329e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2714261672907615</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2569065801217919</v>
+        <v>-8.873966436172989</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-317.646748896601</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-11842.02412703205</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-471507.8350628682</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-18898359.03554492</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-744624183.1579406</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-25031859992.74355</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-766365176129.2234</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-19478961182809.86</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-317919860938125.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2585612089529412</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.892894554721592e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.921976746382232e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.498517520334664e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>6.942353216758904e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.0105576363622e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.273084255558057e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.399566657372326e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.3511372033851052</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.321417880495291</v>
+        <v>-27.3706280503411</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1933.95426834792</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-143156.3084131669</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11203239.74539478</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-884777606.6457688</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-69339382970.3631</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4923389566716.986</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-335468045592114.1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.104297359462708e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.181927396889684e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-5.93506643015132e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-2.80600296808703e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.178490309285441e+23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-2.315435811950948e+24</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.899757363586769e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.973050179008472e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.992128427614358e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.02789759701044e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.1712564983919799</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.137149999642194</v>
+        <v>-6.845035941354851</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-391.7510964415191</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-19555.34072808066</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-966092.2561399809</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-46895256.12263305</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2216958042.583488</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-89118533415.08514</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3220288365294.389</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-94810587360410.75</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1585854593404230</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.528573533553043e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>6.086824579555696e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.175258609212389e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.508710023339269e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.370364476559128e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.02018878678619e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.510913831287401e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.766281523207377e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>-0.1685632364568675</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1502495909086008</v>
+        <v>-9.094223403361759</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-469.2785138128218</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-21733.14766117936</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1001539.623806992</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-45450921.30125915</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-2008581923.465344</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-77639184173.38058</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2707546387033.393</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-78894741121564.94</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1520117807417674</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.02720005921872e+16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.867405616613301e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.049042560449454e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.216210267761679e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.422333389905881e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.14936154535703e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.502218841433533e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.214582236712021e+28</v>
       </c>
     </row>
   </sheetData>
